--- a/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>NMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,218 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>63500</v>
+      </c>
+      <c r="F8" s="3">
         <v>47700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>46800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>57500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>62600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>58200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>53100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>59300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>60000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>50000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>42400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>49700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F9" s="3">
         <v>4000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>59100</v>
+      </c>
+      <c r="F10" s="3">
         <v>43700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>41700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>52700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>58900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>53900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>49700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>56300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>56400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>48400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>39300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>46700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +892,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +935,14 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,90 +982,108 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>29300</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>7300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>5300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>37900</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>32700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-4100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>10000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E15" s="3">
         <v>13200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="G15" s="3">
         <v>13500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>14500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>14500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>14400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>14900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>16200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>21100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>18700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>16800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>16600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1096,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F17" s="3">
         <v>44000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>46600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>46300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>44500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>79500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>39700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>74000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>41900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>38200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>38200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>44300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F18" s="3">
         <v>3700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>11200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>18100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-21300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>13400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-14700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>18100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>11800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>5400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,90 +1209,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-10200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-9700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-10700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-7700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-8200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-7900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-8100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F21" s="3">
         <v>6700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>15000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>25000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-15200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>20400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-6600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>40100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>31300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>21500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>22100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1253,63 +1332,75 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>9900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>8100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>10400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>7600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>10500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-29500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>5500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-22800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>9200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-9500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>10500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-29500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-22800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>9200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-9500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>10200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-28900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-22400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>9100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1769,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F32" s="3">
         <v>10200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>9700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>10700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>7700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>8200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>7900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>8100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-9500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>10200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-28900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-22400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>9100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-9500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>10200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-28900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-22400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>9100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +2051,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F41" s="3">
         <v>33900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>47500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>58600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>53500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>40600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>48300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>24000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>24700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>79700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>111600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>17400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,49 +2141,61 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F43" s="3">
         <v>33100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>44300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>47800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>28500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>27600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>28400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>29500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>44800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>46600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>34400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>29700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,49 +2235,61 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F45" s="3">
         <v>9000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>7400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>69800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>6800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>8600</v>
-      </c>
-      <c r="L45" s="3">
-        <v>7800</v>
       </c>
       <c r="M45" s="3">
         <v>8600</v>
       </c>
       <c r="N45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="O45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="P45" s="3">
         <v>9300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2094,163 +2297,187 @@
         <v>76000</v>
       </c>
       <c r="E46" s="3">
+        <v>67000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>76000</v>
+      </c>
+      <c r="G46" s="3">
         <v>96900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>111100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>89400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>137900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>80100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>60300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>78000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>134100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>154600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>56300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>140100</v>
+      </c>
+      <c r="F47" s="3">
         <v>150700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>142200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>139000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>154400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>143300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>143100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>118900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>84400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>53700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>69600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>9800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1076500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1017000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1010000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1025200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1043300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1065700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1005300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1085100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1099000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1150100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1083600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1023600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1037200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1045300</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F49" s="3">
         <v>3700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>4300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>5000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>6000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>7100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>8100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>9400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>38000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>15800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>19000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2564,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F52" s="3">
         <v>19300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>17400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>16500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>14200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>14800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>18800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>19000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>17400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>18100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>20400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>146300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2658,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1253500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1255400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1259800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1285600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1314100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1328600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1307300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1334200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1305300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1339400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1327600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1284000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1268600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1300800</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,254 +2747,292 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4200</v>
       </c>
       <c r="J57" s="3">
         <v>3700</v>
       </c>
       <c r="K57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M57" s="3">
         <v>5200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>7700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>64700</v>
+      </c>
+      <c r="F58" s="3">
         <v>11700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>26700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>26800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>27800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>45000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>26600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>26600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>27000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>36200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>22000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>74000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F59" s="3">
         <v>16400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>15700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>20700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>22200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>23000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>21700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>23900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>24000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>28300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>21500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>21600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>79800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>83400</v>
+      </c>
+      <c r="F60" s="3">
         <v>32200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>46600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>52300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>54100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>71800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>52500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>54200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>56300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>68600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>51200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>99000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>429200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>390500</v>
+      </c>
+      <c r="F61" s="3">
         <v>473400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>473900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>480700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>483800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>449500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>460200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>466900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>473500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>438800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>402500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>449700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>512300</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F62" s="3">
         <v>3900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>4200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>7400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>10500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>13500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>16500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>19500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>22600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>25600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>39700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3166,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>525500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>491000</v>
+      </c>
+      <c r="F66" s="3">
         <v>509400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>524700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>537400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>545300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>531700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>526200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>537600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>549400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>547700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>479300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>588400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>619000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,49 +3326,61 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>5400</v>
+        <v>4300</v>
       </c>
       <c r="E70" s="3">
         <v>5600</v>
       </c>
       <c r="F70" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G70" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H70" s="3">
         <v>5800</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>5800</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>5700</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>6400</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>5500</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>5900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>5700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>5600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>3100</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,8 +3420,14 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3120,8 +3467,14 @@
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3608,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>723700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>758800</v>
+      </c>
+      <c r="F76" s="3">
         <v>745100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>755300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>771000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>777500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>769900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>801600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>762200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>784100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>774100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>799100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>677100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-9500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>10200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-28900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-22400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>9100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3824,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E83" s="3">
         <v>13200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="G83" s="3">
         <v>13500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>14500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>14500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>14400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>14900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>16200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>21100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>18700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>16800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>16600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>32700</v>
+      </c>
+      <c r="F89" s="3">
         <v>3900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>10500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>17700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>19400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>24800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>6400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>16000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>27400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>12300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>21900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,40 +4172,42 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-79200</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-57200</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -3774,8 +4215,14 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4309,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F94" s="3">
         <v>3700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-14100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-34800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-13600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-7700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-167800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-109800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>98000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-15300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3923,19 +4390,19 @@
         <v>-3400</v>
       </c>
       <c r="E96" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="F96" s="3">
         <v>-3400</v>
       </c>
       <c r="G96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H96" s="3">
         <v>-3400</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4563,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-22800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-16200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-9100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>12000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>25900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-9000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>85300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>65600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-29800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4657,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-15100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-11100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>17300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-7700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>18700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-55100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-31900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>94300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-23200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>NMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>46500</v>
+      </c>
+      <c r="F8" s="3">
         <v>61300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>63500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>47700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>46800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>57500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>62600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>58200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>53100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>59300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>60000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>50000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>42400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>49700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F9" s="3">
         <v>5800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>4400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>5100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>40900</v>
+      </c>
+      <c r="F10" s="3">
         <v>55500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>59100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>43700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>41700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>52700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>58900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>53900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>49700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>56300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>56400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>48400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>39300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>46700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,102 +1022,120 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F14" s="3">
         <v>29300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>7300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>5300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>37900</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>32700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-4100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>10000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F15" s="3">
         <v>13400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>13200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>13200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>13500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>14500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>14500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>14400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>14900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>16200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>21100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>18700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>16800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>16600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>52100</v>
+      </c>
+      <c r="F17" s="3">
         <v>73300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>38500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>44000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>46600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>46300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>44500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>79500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>39700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>74000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>41900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>38200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>38200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>44300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>25000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>11200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>18100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-21300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>13400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-14700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>18100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>11800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>4200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>5400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1277,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-50900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-8200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-10200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-9700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-10700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-7700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-8200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-7900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-8100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-49600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>30000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>6700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>4000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>15000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>25000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-15200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>20400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-6600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>40100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>31300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>21500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>22100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1338,69 +1418,81 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>9900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>8100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>10400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>7600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-62900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>16900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-9500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>10500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-29500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>5500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-22800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>9200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>4400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-5700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-62900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>16900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-9500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>10500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-29500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>5500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-22800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>9200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>4400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-5700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-62900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>16900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-9500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>10200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-28900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-22400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>9100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-5500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F32" s="3">
         <v>50900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>8200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>10200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>9700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>10700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>7700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>8200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>7900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>8100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-62900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>16900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-9500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>10200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-28900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-22400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>9100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-5500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-62900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>16900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-9500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>10200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-28900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-22400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>9100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-5500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F41" s="3">
         <v>23400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>24000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>33900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>47500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>58600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>53500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>40600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>48300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>24000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>24700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>79700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>111600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>17400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,55 +2327,67 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F43" s="3">
         <v>35100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>33000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>33100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>44300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>47800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>28500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>27600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>28400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>29500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>44800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>46600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>34400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>29700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,243 +2433,279 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F45" s="3">
         <v>17500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>10000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>9000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>4800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>69800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6800</v>
-      </c>
-      <c r="M45" s="3">
-        <v>8600</v>
-      </c>
-      <c r="N45" s="3">
-        <v>7800</v>
       </c>
       <c r="O45" s="3">
         <v>8600</v>
       </c>
       <c r="P45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="R45" s="3">
         <v>9300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>76000</v>
+        <v>67600</v>
       </c>
       <c r="E46" s="3">
-        <v>67000</v>
+        <v>70900</v>
       </c>
       <c r="F46" s="3">
         <v>76000</v>
       </c>
       <c r="G46" s="3">
+        <v>67000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>76000</v>
+      </c>
+      <c r="I46" s="3">
         <v>96900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>111100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>89400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>137900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>80100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>60300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>78000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>134100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>154600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>56300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>49400</v>
+      </c>
+      <c r="F47" s="3">
         <v>63200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>140100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>150700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>142200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>139000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>154400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>143300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>143100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>118900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>84400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>53700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>69600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>9800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1063200</v>
+      </c>
+      <c r="F48" s="3">
         <v>1076500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1017000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1010000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1025200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1043300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1065700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1005300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1085100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1099000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1150100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1083600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1023600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1037200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1045300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F49" s="3">
         <v>3200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>4000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>4300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>5000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>8100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>9400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>38000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>15800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>19000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>41300</v>
+      </c>
+      <c r="F52" s="3">
         <v>34600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>27900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>19300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>17400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>16500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>14200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>14800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>18800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>19000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>17400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>18100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>20400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>146300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1247600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1227600</v>
+      </c>
+      <c r="F54" s="3">
         <v>1253500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1255400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1259800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1285600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1314100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1328600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1307300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1334200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1305300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1339400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1327600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1284000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1268600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1300800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +3009,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F57" s="3">
         <v>8500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>4200</v>
       </c>
       <c r="L57" s="3">
         <v>3700</v>
       </c>
       <c r="M57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O57" s="3">
         <v>5200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>93500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>64800</v>
+      </c>
+      <c r="F58" s="3">
         <v>59800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>64700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>11700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>26700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>26800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>27800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>45000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>26600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>26600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>27000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>36200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>22000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>74000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F59" s="3">
         <v>11500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>13500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>16400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>15700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>20700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>22200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>23000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>21700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>23900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>24000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>28300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>21500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>21600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>86300</v>
+      </c>
+      <c r="F60" s="3">
         <v>79800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>83400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>32200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>46600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>52300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>54100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>71800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>52500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>54200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>56300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>68600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>51200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>99000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>394600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>411200</v>
+      </c>
+      <c r="F61" s="3">
         <v>429200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>390500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>473400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>473900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>480700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>483800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>449500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>460200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>466900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>473500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>438800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>402500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>449700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>512300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F62" s="3">
         <v>16500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>17000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>4400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>7400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>10500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>13500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>16500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>19500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>22600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>25600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>39700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>551200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>513400</v>
+      </c>
+      <c r="F66" s="3">
         <v>525500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>491000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>509400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>524700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>537400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>545300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>531700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>526200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>537600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>549400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>547700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>479300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>588400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>619000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,55 +3662,67 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E70" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F70" s="3">
         <v>4300</v>
-      </c>
-      <c r="E70" s="3">
-        <v>5600</v>
-      </c>
-      <c r="F70" s="3">
-        <v>5400</v>
       </c>
       <c r="G70" s="3">
         <v>5600</v>
       </c>
       <c r="H70" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I70" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J70" s="3">
         <v>5800</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>5800</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>5700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>6400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>5500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>5900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>5700</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>5600</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>3100</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,8 +3768,14 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3473,8 +3821,14 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>692800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>710200</v>
+      </c>
+      <c r="F76" s="3">
         <v>723700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>758800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>745100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>755300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>771000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>777500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>769900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>801600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>762200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>784100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>774100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>799100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>677100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-62900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>16900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-9500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>10200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-28900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-22400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>9100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-5500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F83" s="3">
         <v>13400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>13200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>13200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>13500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>14500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>14500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>14400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>14900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>16200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>21100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>18700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>16800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>16600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F89" s="3">
         <v>23300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>32700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>10500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>17700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>19400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>24800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>6400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>16000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>27400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>12300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>21900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,46 +4614,48 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-9900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-5500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-79200</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-57200</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-10200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>3700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-14100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-34800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-13600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-7700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-167800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-109800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>98000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4396,19 +4864,19 @@
         <v>-3400</v>
       </c>
       <c r="G96" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="H96" s="3">
         <v>-3400</v>
       </c>
       <c r="I96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J96" s="3">
         <v>-3400</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-8700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-36600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-22800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-16200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-9100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>12000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>25900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-9000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>85300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>65600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>700</v>
+      </c>
+      <c r="F102" s="3">
         <v>4400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-9200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-15100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-11100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>3100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>17300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-7700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>18700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-55100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-31900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>94300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>NMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,269 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>64500</v>
+      </c>
+      <c r="F8" s="3">
         <v>46500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>46500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>61300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>63500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>47700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>46800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>57500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>62600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>58200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>53100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>59300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>60000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>50000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>42400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>49700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F9" s="3">
         <v>4300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>5800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>58200</v>
+      </c>
+      <c r="F10" s="3">
         <v>42200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>40900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>55500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>59100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>43700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>41700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>52700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>58900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>53900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>49700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>56300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>56400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>48400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>39300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>46700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1061,132 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F14" s="3">
         <v>6800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>6900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>29300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>7300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>5300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>37900</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>32700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-4100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>10000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F15" s="3">
         <v>13700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>13600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>13400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>13200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>13200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>13500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>14500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>14500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>14400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>14900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>16200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>21100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>18700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>16800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>16600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>51900</v>
+      </c>
+      <c r="F17" s="3">
         <v>54400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>52100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>73300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>38500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>44000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>46600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>46300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>44500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>79500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>39700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>74000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>41900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>38200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>38200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>44300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-12000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>25000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>11200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>18100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-21300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>13400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-14700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>18100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>11800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>4200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>5400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1344,128 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-6800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-5100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-50900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-8200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-10200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-9700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-10700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-7700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-8200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-7900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-8100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-49600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>30000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>6700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>4000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>15000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>25000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-15200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>20400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-6600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>40100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>31300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>21500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>22100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1424,75 +1503,87 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>9900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>8100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>10400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>7600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-14600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-10700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-62900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>16900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-9500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>10500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-29500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>5500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-22800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>9200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-5700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-14600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-10700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-62900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>16900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-9500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>10500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-29500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>5500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-22800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>9200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>4400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-5700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-14600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-10700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-62900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>16900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-6500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-9500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>10200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-28900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-22400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>9100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-5500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2048,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F32" s="3">
         <v>6800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>5100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>50900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>8200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>10200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>9700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>10700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>7700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>8200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>7900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>8100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-14600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-10700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-62900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>16900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-6500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-9500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>10200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-28900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-22400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>9100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-5500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-14600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-10700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-62900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>16900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-6500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-9500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>10200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-28900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-22400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>9100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-5500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2398,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F41" s="3">
         <v>23200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>22000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>23400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>24000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>33900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>47500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>58600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>53500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>40600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>48300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>24000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>24700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>79700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>111600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>17400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2512,73 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F43" s="3">
         <v>25000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>27800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>35100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>33000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>33100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>44300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>47800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>28500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>27600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>28400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>29500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>44800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>46600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>34400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>29700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,273 +2630,309 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F45" s="3">
         <v>19400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>21000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>17500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>10000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>9000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>7400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>69800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>6800</v>
-      </c>
-      <c r="O45" s="3">
-        <v>8600</v>
-      </c>
-      <c r="P45" s="3">
-        <v>7800</v>
       </c>
       <c r="Q45" s="3">
         <v>8600</v>
       </c>
       <c r="R45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="S45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="T45" s="3">
         <v>9300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>67100</v>
+      </c>
+      <c r="F46" s="3">
         <v>67600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>70900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>76000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>67000</v>
       </c>
       <c r="H46" s="3">
         <v>76000</v>
       </c>
       <c r="I46" s="3">
+        <v>67000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K46" s="3">
         <v>96900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>111100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>89400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>137900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>80100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>60300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>78000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>134100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>154600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>56300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
+        <v>33500</v>
+      </c>
+      <c r="F47" s="3">
         <v>33800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>49400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>63200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>140100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>150700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>142200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>139000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>154400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>143300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>143100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>118900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>84400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>53700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>69600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>9800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1041100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1136100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1100100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1063200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1076500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1017000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1010000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1025200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1043300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1065700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1005300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1085100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1099000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1150100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1083600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1023600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1037200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1045300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F49" s="3">
         <v>2600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>4000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>6000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>7100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>8100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>9400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>38000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>15800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>19000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3043,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3">
+        <v>58700</v>
+      </c>
+      <c r="F52" s="3">
         <v>43500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>41300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>34600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>27900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>19300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>17400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>16500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>14200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>14800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>18800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>19000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>17400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>18100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>20400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>146300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1207300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1297700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1247600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1227600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1253500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1255400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1259800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1285600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1314100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1328600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1307300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1334200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1305300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1339400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1327600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1284000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1268600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1300800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3270,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F57" s="3">
         <v>6000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>8500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>5200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>3700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>4200</v>
       </c>
       <c r="N57" s="3">
         <v>3700</v>
       </c>
       <c r="O57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q57" s="3">
         <v>5200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>7700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
+        <v>204600</v>
+      </c>
+      <c r="F58" s="3">
         <v>93500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>64800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>59800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>64700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>11700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>26700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>26800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>27800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>45000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>26600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>26600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>27000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>36200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>22000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>74000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>65900</v>
+      </c>
+      <c r="F59" s="3">
         <v>41700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>13700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>13500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>16400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>15700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>20700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>22200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>23000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>21700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>23900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>24000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>28300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>21500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>21600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>277100</v>
+      </c>
+      <c r="F60" s="3">
         <v>141200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>86300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>79800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>83400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>32200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>46600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>52300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>54100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>71800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>52500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>54200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>56300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>68600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>51200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>99000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>486900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>301000</v>
+      </c>
+      <c r="F61" s="3">
         <v>394600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>411200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>429200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>390500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>473400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>473900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>480700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>483800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>449500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>460200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>466900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>473500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>438800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>402500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>449700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>512300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F62" s="3">
         <v>15300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>15900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>16500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>17000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>7400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>10500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>13500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>16500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>19500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>22600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>25600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>39700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>239200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>592900</v>
+      </c>
+      <c r="F66" s="3">
         <v>551200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>513400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>525500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>491000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>509400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>524700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>537400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>545300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>531700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>526200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>537600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>549400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>547700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>479300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>588400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>619000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,61 +3997,73 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F70" s="3">
         <v>3700</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>4000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>4300</v>
-      </c>
-      <c r="G70" s="3">
-        <v>5600</v>
-      </c>
-      <c r="H70" s="3">
-        <v>5400</v>
       </c>
       <c r="I70" s="3">
         <v>5600</v>
       </c>
       <c r="J70" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K70" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L70" s="3">
         <v>5800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>5800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>5700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>6400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>5500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>5900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>5700</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>5600</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>3100</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +4115,14 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3827,8 +4174,14 @@
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>191500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>701000</v>
+      </c>
+      <c r="F76" s="3">
         <v>692800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>710200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>723700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>758800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>745100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>755300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>771000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>777500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>769900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>801600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>762200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>784100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>774100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>799100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>677100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-14600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-10700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-62900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>16900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-6500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-9500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>10200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-28900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-22400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>9100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-5500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4619,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F83" s="3">
         <v>13700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>13600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>13400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>13200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>13200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>13500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>14500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>14500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>14400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>14900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>16200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>21100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>18700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>16800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>16600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F89" s="3">
         <v>26700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>20900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>23300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>32700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>10500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>17700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>19400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>24800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>6400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>16000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>27400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>12300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>21900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,52 +5055,54 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-37300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-9900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-5500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-79200</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-57200</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
@@ -4669,8 +5110,14 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5228,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-36300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-10200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-5400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-14100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-34800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-13600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-7700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-167800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-109800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>98000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-15300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,16 +5314,18 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-3400</v>
+        <v>-600</v>
       </c>
       <c r="F96" s="3">
         <v>-3400</v>
@@ -4870,19 +5337,19 @@
         <v>-3400</v>
       </c>
       <c r="I96" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="J96" s="3">
         <v>-3400</v>
       </c>
       <c r="K96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5546,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F100" s="3">
         <v>8300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-16900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-8700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-36600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-22800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-16200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-9100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>12000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>25900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-9000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>85300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>65600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-2000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-29800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5664,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3">
+        <v>800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-9200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-15100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-11100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>17300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-7700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>18700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-55100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-31900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>94300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-23200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>NMM</t>
   </si>
@@ -754,8 +754,8 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>69200</v>
       </c>
       <c r="E8" s="3">
         <v>64500</v>
@@ -872,8 +872,8 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>64200</v>
       </c>
       <c r="E10" s="3">
         <v>58200</v>
@@ -1210,8 +1210,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>114500</v>
       </c>
       <c r="E17" s="3">
         <v>51900</v>
@@ -1269,8 +1269,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-45300</v>
       </c>
       <c r="E18" s="3">
         <v>12600</v>
@@ -1351,8 +1351,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-4800</v>
       </c>
       <c r="E20" s="3">
         <v>-5700</v>
@@ -1410,8 +1410,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-35600</v>
       </c>
       <c r="E21" s="3">
         <v>21100</v>
@@ -1528,8 +1528,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>-50200</v>
       </c>
       <c r="E23" s="3">
         <v>7000</v>
@@ -1765,16 +1765,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-50200</v>
+        <v>-49200</v>
       </c>
       <c r="E27" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="F27" s="3">
-        <v>-14600</v>
+        <v>-14300</v>
       </c>
       <c r="G27" s="3">
-        <v>-10700</v>
+        <v>-10500</v>
       </c>
       <c r="H27" s="3">
         <v>-62900</v>
@@ -2059,8 +2059,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>4800</v>
       </c>
       <c r="E32" s="3">
         <v>5700</v>
@@ -2119,16 +2119,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-50200</v>
+        <v>-49200</v>
       </c>
       <c r="E33" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="F33" s="3">
-        <v>-14600</v>
+        <v>-14300</v>
       </c>
       <c r="G33" s="3">
-        <v>-10700</v>
+        <v>-10500</v>
       </c>
       <c r="H33" s="3">
         <v>-62900</v>
@@ -2237,16 +2237,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-50200</v>
+        <v>-49200</v>
       </c>
       <c r="E35" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="F35" s="3">
-        <v>-14600</v>
+        <v>-14300</v>
       </c>
       <c r="G35" s="3">
-        <v>-10700</v>
+        <v>-10500</v>
       </c>
       <c r="H35" s="3">
         <v>-62900</v>
@@ -2406,7 +2406,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30700</v>
+        <v>19300</v>
       </c>
       <c r="E41" s="3">
         <v>22600</v>
@@ -2523,8 +2523,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>22000</v>
       </c>
       <c r="E43" s="3">
         <v>22800</v>
@@ -2641,8 +2641,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>19500</v>
       </c>
       <c r="E45" s="3">
         <v>21700</v>
@@ -2701,7 +2701,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16700</v>
+        <v>60800</v>
       </c>
       <c r="E46" s="3">
         <v>67100</v>
@@ -2759,8 +2759,8 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>34200</v>
       </c>
       <c r="E47" s="3">
         <v>33500</v>
@@ -2819,7 +2819,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1041100</v>
+        <v>1054400</v>
       </c>
       <c r="E48" s="3">
         <v>1136100</v>
@@ -2878,7 +2878,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E49" s="3">
         <v>2300</v>
@@ -3054,8 +3054,8 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>55900</v>
       </c>
       <c r="E52" s="3">
         <v>58700</v>
@@ -3277,8 +3277,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>6300</v>
       </c>
       <c r="E57" s="3">
         <v>6500</v>
@@ -3336,8 +3336,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>201800</v>
       </c>
       <c r="E58" s="3">
         <v>204600</v>
@@ -3396,7 +3396,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>51400</v>
+        <v>45100</v>
       </c>
       <c r="E59" s="3">
         <v>65900</v>
@@ -3455,7 +3455,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>39900</v>
+        <v>253300</v>
       </c>
       <c r="E60" s="3">
         <v>277100</v>
@@ -3514,7 +3514,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>486900</v>
+        <v>285000</v>
       </c>
       <c r="E61" s="3">
         <v>301000</v>
@@ -3809,7 +3809,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>239200</v>
+        <v>552400</v>
       </c>
       <c r="E66" s="3">
         <v>592900</v>
@@ -4009,7 +4009,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E70" s="3">
         <v>3800</v>
@@ -4363,7 +4363,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>191500</v>
+        <v>652000</v>
       </c>
       <c r="E76" s="3">
         <v>701000</v>
@@ -4545,16 +4545,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-50200</v>
+        <v>-49200</v>
       </c>
       <c r="E81" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="F81" s="3">
-        <v>-14600</v>
+        <v>-14300</v>
       </c>
       <c r="G81" s="3">
-        <v>-10700</v>
+        <v>-10500</v>
       </c>
       <c r="H81" s="3">
         <v>-62900</v>
@@ -4626,8 +4626,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>14600</v>
       </c>
       <c r="E83" s="3">
         <v>14200</v>
@@ -4981,7 +4981,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-58000</v>
+        <v>25400</v>
       </c>
       <c r="E89" s="3">
         <v>21000</v>
@@ -5062,8 +5062,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-1000</v>
       </c>
       <c r="E91" s="3">
         <v>-33900</v>
@@ -5240,7 +5240,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>74800</v>
+        <v>-5500</v>
       </c>
       <c r="E94" s="3">
         <v>-38700</v>
@@ -5322,7 +5322,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E96" s="3">
         <v>-600</v>
@@ -5557,8 +5557,8 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>-19800</v>
       </c>
       <c r="E100" s="3">
         <v>18500</v>
@@ -5675,8 +5675,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>800</v>

--- a/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>NMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E8" s="3">
         <v>69200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>64500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>46500</v>
       </c>
       <c r="G8" s="3">
         <v>46500</v>
       </c>
       <c r="H8" s="3">
+        <v>46500</v>
+      </c>
+      <c r="I8" s="3">
         <v>61300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>63500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>47700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>57500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>62600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>58200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>53100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>59300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>60000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>50000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>42400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>49700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E9" s="3">
         <v>5000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E10" s="3">
         <v>64200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>58200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>42200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>40900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>55500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>59100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>43700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>41700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>58900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>53900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>49700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>56300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>56400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>48400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>39300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>46700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E14" s="3">
         <v>63000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>29300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>7300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>37900</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>32700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-4100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>10000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E15" s="3">
         <v>14600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>14200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>13600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>13400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>13200</v>
       </c>
       <c r="J15" s="3">
         <v>13200</v>
       </c>
       <c r="K15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="L15" s="3">
         <v>13500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>14500</v>
       </c>
       <c r="M15" s="3">
         <v>14500</v>
       </c>
       <c r="N15" s="3">
+        <v>14500</v>
+      </c>
+      <c r="O15" s="3">
         <v>14400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>14900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>16200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>21100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>18700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>16800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>16600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
         <v>114500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>51900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>54400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>52100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>73300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>38500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>44000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>46600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>46300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>44500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>79500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>39700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>74000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>41900</v>
-      </c>
-      <c r="R17" s="3">
-        <v>38200</v>
       </c>
       <c r="S17" s="3">
         <v>38200</v>
       </c>
       <c r="T17" s="3">
+        <v>38200</v>
+      </c>
+      <c r="U17" s="3">
         <v>44300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-45300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>25000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-21300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>18100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-50900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-10200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-35600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>21100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-49600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>30000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-15200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>40100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>31300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>21500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>22100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1509,81 +1549,87 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>9900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10400</v>
-      </c>
-      <c r="T22" s="3">
-        <v>7600</v>
       </c>
       <c r="U22" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>136700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-50200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-62900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-29500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>136700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-50200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-62900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-29500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>133900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-49200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-62900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-28900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-74600</v>
+      </c>
+      <c r="E32" s="3">
         <v>4800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>50900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>10200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>133900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-49200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-62900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-28900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>133900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-49200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-62900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-28900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E41" s="3">
         <v>19300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>58600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>53500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>40600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>79700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>111600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E43" s="3">
         <v>22000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>22800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>25000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>27800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>35100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>33000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>33100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>44300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>47800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>28500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>27600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>28400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>29500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>44800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>46600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>34400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>29700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,303 +2732,321 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E45" s="3">
         <v>19500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>69800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E46" s="3">
         <v>60800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>67100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>67600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>70900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>76000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>67000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>76000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>96900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>111100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>89400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>137900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>80100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>60300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>78000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>134100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>154600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>56300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E47" s="3">
         <v>34200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>33500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>33800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>49400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>63200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>140100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>150700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>142200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>139000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>154400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>143300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>143100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>118900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>84400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>53700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>69600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1821900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1054400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1136100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1063200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1076500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1017000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1010000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1025200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1043300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1065700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1005300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1085100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1099000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1150100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1083600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1023600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1037200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1045300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3">
         <v>2000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>38000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>15800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>19000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E52" s="3">
         <v>55900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>58700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>43500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>41300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>34600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>27900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>19300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>19000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>20400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>146300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1994200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1207300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1297700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1247600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1227600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1253500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1255400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1259800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1285600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1314100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1328600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1307300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1334200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1305300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1339400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1327600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1284000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1268600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1300800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E57" s="3">
         <v>6300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>92300</v>
+      </c>
+      <c r="E58" s="3">
         <v>201800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>204600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>93500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>64800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>59800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>64700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>26800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>27800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>45000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>26600</v>
       </c>
       <c r="P58" s="3">
         <v>26600</v>
       </c>
       <c r="Q58" s="3">
+        <v>26600</v>
+      </c>
+      <c r="R58" s="3">
         <v>27000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>36200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>22000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>74000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E59" s="3">
         <v>45100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>65900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>41700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>24000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>28300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>21600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>150700</v>
+      </c>
+      <c r="E60" s="3">
         <v>253300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>277100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>141200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>86300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>79800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>83400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>32200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>52300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>54100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>71800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>52500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>54200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>56300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>68600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>51200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>99000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>608900</v>
+      </c>
+      <c r="E61" s="3">
         <v>285000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>301000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>394600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>411200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>429200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>390500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>473400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>473900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>480700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>483800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>449500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>460200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>466900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>473500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>438800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>402500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>449700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>512300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>238100</v>
+      </c>
+      <c r="E62" s="3">
         <v>14200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>19500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>22600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>39700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>997700</v>
+      </c>
+      <c r="E66" s="3">
         <v>552400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>592900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>551200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>513400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>525500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>491000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>509400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>524700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>537400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>545300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>531700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>526200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>537600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>549400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>547700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>479300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>588400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>619000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,67 +4168,73 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E70" s="3">
         <v>2800</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>3800</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>3700</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>4000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>4300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>5600</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>5400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>5600</v>
-      </c>
-      <c r="L70" s="3">
-        <v>5800</v>
       </c>
       <c r="M70" s="3">
         <v>5800</v>
       </c>
       <c r="N70" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O70" s="3">
         <v>5700</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>6400</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>5500</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>5900</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>5700</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>5600</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>3100</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,8 +4292,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>986800</v>
+      </c>
+      <c r="E76" s="3">
         <v>652000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>701000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>692800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>710200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>723700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>758800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>745100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>755300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>771000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>777500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>769900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>801600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>762200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>784100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>774100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>799100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>677100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>133900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-49200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-62900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-28900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E83" s="3">
         <v>14600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>13200</v>
       </c>
       <c r="J83" s="3">
         <v>13200</v>
       </c>
       <c r="K83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="L83" s="3">
         <v>13500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>14500</v>
       </c>
       <c r="M83" s="3">
         <v>14500</v>
       </c>
       <c r="N83" s="3">
+        <v>14500</v>
+      </c>
+      <c r="O83" s="3">
         <v>14400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>18700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>16800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>16600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E89" s="3">
         <v>25400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>23300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>19400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>27400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>12300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>21900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,55 +5277,56 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-33900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-79200</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-57200</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-38700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-36300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3700</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-5400</v>
       </c>
       <c r="L94" s="3">
         <v>-5400</v>
       </c>
       <c r="M94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="N94" s="3">
         <v>-14100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-167800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-109800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>98000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5328,7 +5562,7 @@
         <v>-600</v>
       </c>
       <c r="F96" s="3">
-        <v>-3400</v>
+        <v>-600</v>
       </c>
       <c r="G96" s="3">
         <v>-3400</v>
@@ -5343,16 +5577,16 @@
         <v>-3400</v>
       </c>
       <c r="K96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3500</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-3400</v>
       </c>
       <c r="M96" s="3">
         <v>-3400</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>18500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-16900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-36600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-22800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>12000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>25900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>85300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>65600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-29800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-15100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-55100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-31900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>94300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-23200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>NMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>152000</v>
+      </c>
+      <c r="F8" s="3">
         <v>65100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>69200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>64500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>46500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>46500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>61300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>63500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>47700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>46800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>57500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>62600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>58200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>53100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>59300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>60000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>50000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>42400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>49700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J9" s="3">
         <v>5600</v>
       </c>
-      <c r="E9" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="K9" s="3">
+        <v>5800</v>
+      </c>
+      <c r="L9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N9" s="3">
+        <v>5100</v>
+      </c>
+      <c r="O9" s="3">
+        <v>4800</v>
+      </c>
+      <c r="P9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q9" s="3">
         <v>4300</v>
       </c>
-      <c r="H9" s="3">
-        <v>5600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>4000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>5100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>4800</v>
-      </c>
-      <c r="N9" s="3">
-        <v>3700</v>
-      </c>
-      <c r="O9" s="3">
-        <v>4300</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>3100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>3000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>59500</v>
+        <v>205700</v>
       </c>
       <c r="E10" s="3">
+        <v>143000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>57500</v>
+      </c>
+      <c r="G10" s="3">
         <v>64200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>58200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>42200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>40900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>55500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>59100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>43700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>41700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>52700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>58900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>53900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>49700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>56300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>56400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>48400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>39300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>46700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1121,150 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-44100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>63000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>1800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>6800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>6900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>29300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>7300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>5300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>37900</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>32700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-4100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>10000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>22100</v>
+      </c>
+      <c r="F15" s="3">
         <v>13100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>14600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>14200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>13700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>13600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>13400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>13200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>13200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>13500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>14500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>14500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>14400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>14900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>16200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>21100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>18700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>16800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>16600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45500</v>
+      </c>
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>114500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>51900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>54400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>52100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>73300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>38500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>44000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>46600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>46300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>44500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>79500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>39700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>74000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>41900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>38200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>38200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>44300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>141800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>106500</v>
+      </c>
+      <c r="F18" s="3">
         <v>62100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-45300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>12600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-7900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-12000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>25000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>11200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>18100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-21300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>13400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-14700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>18100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>11800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>4200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>5400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1446,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F20" s="3">
         <v>74600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-5700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-6800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-5100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-50900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-8200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-10200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-9700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-10700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-7700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-8200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-8100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>155100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>122000</v>
+      </c>
+      <c r="F21" s="3">
         <v>149800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-35600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>21100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-49600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>30000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>6700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>15000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>25000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-15200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>20400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-6600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>40100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>31300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>21500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>22100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1552,84 +1632,96 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>9900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>8100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>10400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>7600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>158200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>99900</v>
+      </c>
+      <c r="F23" s="3">
         <v>136700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-50200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>7000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-14600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-10700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-62900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>16900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-9500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>10500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-29500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>5500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-22800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>9200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>4400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-5700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>158200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>99900</v>
+      </c>
+      <c r="F26" s="3">
         <v>136700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-50200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>7000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-14600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-10700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-62900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>16900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-6500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-9500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>10500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-29500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>5500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-22800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>9200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>4400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-5700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>162100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>97900</v>
+      </c>
+      <c r="F27" s="3">
         <v>133900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-49200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>6900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-14300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-10500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-62900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>16900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-6500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-9500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>10200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-28900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>5400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-22400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>9100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>4000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-5500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-74600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>5700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>6800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>5100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>50900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>8200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>10200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>9700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>10700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>7700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>8200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>7900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>8100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>162100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>97900</v>
+      </c>
+      <c r="F33" s="3">
         <v>133900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-49200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>6900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-14300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-10500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-62900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>16900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-6500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-9500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>10200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-28900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>5400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-22400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>9100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-5500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>162100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>97900</v>
+      </c>
+      <c r="F35" s="3">
         <v>133900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-49200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>6900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-14300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-10500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-62900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>16900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-6500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-9500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>10200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-28900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>5400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-22400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>9100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-5500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>227100</v>
+      </c>
+      <c r="F41" s="3">
         <v>43500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>19300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>22600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>23200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>22000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>23400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>24000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>33900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>47500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>58600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>53500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>40600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>48300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>24000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>24700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>79700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>111600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>17400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2791,82 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F43" s="3">
         <v>25400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>22000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>22800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>25000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>27800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>35100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>33000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>33100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>44300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>47800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>28500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>27600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>28400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>29500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>44800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>46600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>34400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>29700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,318 +2927,354 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F45" s="3">
         <v>27500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>19500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>21700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>19400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>21000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>17500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>10000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>9000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>5100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>4800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>7400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>69800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>6800</v>
-      </c>
-      <c r="R45" s="3">
-        <v>8600</v>
-      </c>
-      <c r="S45" s="3">
-        <v>7800</v>
       </c>
       <c r="T45" s="3">
         <v>8600</v>
       </c>
       <c r="U45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="V45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="W45" s="3">
         <v>9300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>219900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>282000</v>
+      </c>
+      <c r="F46" s="3">
         <v>96400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>60800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>67100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>67600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>70900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>76000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>67000</v>
       </c>
       <c r="K46" s="3">
         <v>76000</v>
       </c>
       <c r="L46" s="3">
+        <v>67000</v>
+      </c>
+      <c r="M46" s="3">
+        <v>76000</v>
+      </c>
+      <c r="N46" s="3">
         <v>96900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>111100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>89400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>137900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>80100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>60300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>78000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>134100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>154600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>56300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F47" s="3">
         <v>8100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>34200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>33500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>33800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>49400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>63200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>140100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>150700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>142200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>139000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>154400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>143300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>143100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>118900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>84400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>53700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>69600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>9800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2895300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1976300</v>
+      </c>
+      <c r="F48" s="3">
         <v>1821900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1054400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1136100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1100100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1063200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1076500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1017000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1010000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1025200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1043300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1065700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1005300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1085100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1099000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1150100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1083600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1023600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1037200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1045300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>6000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>7100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>8100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>9400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>38000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>15800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>19000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>497500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>72600</v>
+      </c>
+      <c r="F52" s="3">
         <v>66100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>55900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>58700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>43500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>41300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>34600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>27900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>19300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>17400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>16500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>14200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>14800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>18800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>19000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>17400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>18100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>20400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>146300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3612700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2335900</v>
+      </c>
+      <c r="F54" s="3">
         <v>1994200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1207300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1297700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1247600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1227600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1253500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1255400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1259800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1285600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1314100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1328600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1307300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1334200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1305300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1339400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1327600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1284000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1268600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1300800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3663,418 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F57" s="3">
         <v>9700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>6300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>7700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>8500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>3700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>4200</v>
       </c>
       <c r="Q57" s="3">
         <v>3700</v>
       </c>
       <c r="R57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="S57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="T57" s="3">
         <v>5200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>7700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
+        <v>115400</v>
+      </c>
+      <c r="F58" s="3">
         <v>92300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>201800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>204600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>93500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>64800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>59800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>64700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>11700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>26700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>26800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>27800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>45000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>26600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>26600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>27000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>36200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>22000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>74000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>43400</v>
+      </c>
+      <c r="F59" s="3">
         <v>48700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>45100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>65900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>41700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>13700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>11500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>13500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>16400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>15700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>20700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>22200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>23000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>21700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>23900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>24000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>28300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>21500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>21600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>168100</v>
+      </c>
+      <c r="F60" s="3">
         <v>150700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>253300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>277100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>141200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>86300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>79800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>83400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>32200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>46600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>52300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>54100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>71800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>52500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>54200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>56300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>68600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>51200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>99000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1458300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>680100</v>
+      </c>
+      <c r="F61" s="3">
         <v>608900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>285000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>301000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>394600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>411200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>429200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>390500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>473400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>473900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>480700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>483800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>449500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>460200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>466900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>473500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>438800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>402500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>449700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>512300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>385000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>225700</v>
+      </c>
+      <c r="F62" s="3">
         <v>238100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>14200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>14800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>15300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>15900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>16500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>17000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>4200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>4400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>7400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>10500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>13500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>16500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>19500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>22600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>25600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>39700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1960000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1073900</v>
+      </c>
+      <c r="F66" s="3">
         <v>997700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>552400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>592900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>551200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>513400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>525500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>491000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>509400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>524700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>537400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>545300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>531700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>526200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>537600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>549400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>547700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>479300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>588400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>619000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,70 +4501,82 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F70" s="3">
         <v>9700</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>2800</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>3800</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>3700</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>4000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>4300</v>
-      </c>
-      <c r="J70" s="3">
-        <v>5600</v>
-      </c>
-      <c r="K70" s="3">
-        <v>5400</v>
       </c>
       <c r="L70" s="3">
         <v>5600</v>
       </c>
       <c r="M70" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N70" s="3">
+        <v>5600</v>
+      </c>
+      <c r="O70" s="3">
         <v>5800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>5800</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>5700</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>6400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>5500</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>5900</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>5700</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>5600</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>3100</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4637,14 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4357,8 +4705,14 @@
       <c r="V72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1652700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1247000</v>
+      </c>
+      <c r="F76" s="3">
         <v>986800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>652000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>701000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>692800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>710200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>723700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>758800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>745100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>755300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>771000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>777500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>769900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>801600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>762200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>784100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>774100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>799100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>677100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>162100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>97900</v>
+      </c>
+      <c r="F81" s="3">
         <v>133900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-49200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>6900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-14300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-10500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-62900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>16900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-6500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-9500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>10200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-28900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>5400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-22400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>9100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-5500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3">
+        <v>22100</v>
+      </c>
+      <c r="F83" s="3">
         <v>13100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>14600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>14200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>13700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>13600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>13400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>13200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>13200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>13500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>14500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>14500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>14400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>14900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>16200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>21100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>18700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>16800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>16600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>70900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>61100</v>
+      </c>
+      <c r="F89" s="3">
         <v>16200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>25400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>21000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>26700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>20900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>23300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>32700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>10500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>17700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>19400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>24800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>6400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>16000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>27400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>12300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>21900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,61 +5718,63 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-143400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-37000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-33900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-37300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-9900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-5500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-79200</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-57200</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-139200</v>
+      </c>
+      <c r="F94" s="3">
         <v>5600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-38700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-36300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-10200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>3700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-5400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-14100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-34800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-7700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-167800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-109800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>98000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-15300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,25 +6016,27 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="F96" s="3">
         <v>-600</v>
       </c>
       <c r="G96" s="3">
-        <v>-3400</v>
+        <v>-600</v>
       </c>
       <c r="H96" s="3">
-        <v>-3400</v>
+        <v>-600</v>
       </c>
       <c r="I96" s="3">
         <v>-3400</v>
@@ -5580,19 +6048,19 @@
         <v>-3400</v>
       </c>
       <c r="L96" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="M96" s="3">
         <v>-3400</v>
       </c>
       <c r="N96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="O96" s="3">
         <v>-3400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="Q96" s="3">
         <v>0</v>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-193100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>259600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-19800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>18500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>8300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-16900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-8700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-36600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-22800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-16200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-9100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>12000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>25900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-9000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>85300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>65600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-2000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-29800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>181500</v>
+      </c>
+      <c r="F102" s="3">
         <v>20700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-9200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-15100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-11100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>17300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-7700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>18700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-55100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-31900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>94300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-23200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>NMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>228000</v>
+        <v>268100</v>
       </c>
       <c r="E8" s="3">
+        <v>445000</v>
+      </c>
+      <c r="F8" s="3">
         <v>152000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>65100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>69200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>64500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>46500</v>
       </c>
       <c r="J8" s="3">
         <v>46500</v>
       </c>
       <c r="K8" s="3">
+        <v>46500</v>
+      </c>
+      <c r="L8" s="3">
         <v>61300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>63500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>47700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>46800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>57500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>62600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>58200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>53100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>59300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>60000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>50000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>42400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>49700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22300</v>
+        <v>27600</v>
       </c>
       <c r="E9" s="3">
+        <v>45700</v>
+      </c>
+      <c r="F9" s="3">
         <v>9000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>205700</v>
+        <v>240500</v>
       </c>
       <c r="E10" s="3">
+        <v>399300</v>
+      </c>
+      <c r="F10" s="3">
         <v>143000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>57500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>64200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>58200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>42200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>40900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>55500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>59100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>43700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>41700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>52700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>58900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>53900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>49700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>56300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>56400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>48400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>39300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>46700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,144 +1143,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-1100</v>
+        <v>7600</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-45100</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-44100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>63000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>29300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>7300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>37900</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>32700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-4100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>10000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>32100</v>
+        <v>45500</v>
       </c>
       <c r="E15" s="3">
+        <v>67300</v>
+      </c>
+      <c r="F15" s="3">
         <v>22100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>14600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>14200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>13700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>13600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>13400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>13200</v>
       </c>
       <c r="M15" s="3">
         <v>13200</v>
       </c>
       <c r="N15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="O15" s="3">
         <v>13500</v>
-      </c>
-      <c r="O15" s="3">
-        <v>14500</v>
       </c>
       <c r="P15" s="3">
         <v>14500</v>
       </c>
       <c r="Q15" s="3">
+        <v>14500</v>
+      </c>
+      <c r="R15" s="3">
         <v>14400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>14900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>16200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>21100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>18700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>16800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>16600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>86200</v>
+        <v>139800</v>
       </c>
       <c r="E17" s="3">
+        <v>134700</v>
+      </c>
+      <c r="F17" s="3">
         <v>45500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>114500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>51900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>54400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>52100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>73300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>44000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>46600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>46300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>44500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>79500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>39700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>74000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>41900</v>
-      </c>
-      <c r="U17" s="3">
-        <v>38200</v>
       </c>
       <c r="V17" s="3">
         <v>38200</v>
       </c>
       <c r="W17" s="3">
+        <v>38200</v>
+      </c>
+      <c r="X17" s="3">
         <v>44300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>141800</v>
+        <v>128300</v>
       </c>
       <c r="E18" s="3">
+        <v>310300</v>
+      </c>
+      <c r="F18" s="3">
         <v>106500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>62100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-45300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>25000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-21300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-14700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>18100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>11800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16400</v>
+        <v>-11800</v>
       </c>
       <c r="E20" s="3">
+        <v>84500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-6600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>74600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-50900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-10200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-10700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>155100</v>
+        <v>94700</v>
       </c>
       <c r="E21" s="3">
+        <v>462100</v>
+      </c>
+      <c r="F21" s="3">
         <v>122000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>149800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-35600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>21100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-49600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>30000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>15000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>25000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-15200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>40100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>31300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>21500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>22100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1638,90 +1677,96 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>9900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10400</v>
-      </c>
-      <c r="W22" s="3">
-        <v>7600</v>
       </c>
       <c r="X22" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>158200</v>
+        <v>116500</v>
       </c>
       <c r="E23" s="3">
+        <v>394800</v>
+      </c>
+      <c r="F23" s="3">
         <v>99900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>136700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-50200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-62900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-29500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-22800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>158200</v>
+        <v>116500</v>
       </c>
       <c r="E26" s="3">
+        <v>394800</v>
+      </c>
+      <c r="F26" s="3">
         <v>99900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>136700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-50200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-62900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-29500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-22800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>162100</v>
+        <v>117500</v>
       </c>
       <c r="E27" s="3">
+        <v>395400</v>
+      </c>
+      <c r="F27" s="3">
         <v>97900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>133900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-49200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-62900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-28900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-22400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16400</v>
+        <v>11800</v>
       </c>
       <c r="E32" s="3">
+        <v>-84500</v>
+      </c>
+      <c r="F32" s="3">
         <v>6600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-74600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>50900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>10200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>10700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>162100</v>
+        <v>117500</v>
       </c>
       <c r="E33" s="3">
+        <v>395400</v>
+      </c>
+      <c r="F33" s="3">
         <v>97900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>133900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-49200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-62900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-28900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-22400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>162100</v>
+        <v>117500</v>
       </c>
       <c r="E35" s="3">
+        <v>395400</v>
+      </c>
+      <c r="F35" s="3">
         <v>97900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>133900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-49200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-62900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-28900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-22400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>141200</v>
+        <v>169400</v>
       </c>
       <c r="E41" s="3">
+        <v>132200</v>
+      </c>
+      <c r="F41" s="3">
         <v>227100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>47500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>58600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>53500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>40600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>48300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>24000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>24700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>79700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>111600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>17400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,67 +2898,70 @@
         <v>8</v>
       </c>
       <c r="E43" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F43" s="3">
         <v>20900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>25400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>22000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>22800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>27800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>33000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>33100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>44300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>47800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>28500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>27600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>28400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>29500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>44800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>46600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>34400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>29700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,144 +3028,153 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>78700</v>
+        <v>56900</v>
       </c>
       <c r="E45" s="3">
+        <v>58500</v>
+      </c>
+      <c r="F45" s="3">
         <v>34000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>69800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>226300</v>
+      </c>
+      <c r="E46" s="3">
         <v>219900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>282000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>96400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>60800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>67100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>67600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>70900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>76000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>67000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>76000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>96900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>111100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>89400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>137900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>80100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>60300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>78000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>134100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>154600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>56300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3078,135 +3182,141 @@
         <v>8</v>
       </c>
       <c r="E47" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F47" s="3">
         <v>3600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>34200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>33500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>33800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>49400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>63200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>140100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>150700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>142200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>139000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>154400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>143300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>143100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>118900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>84400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>53700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>69600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>9800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2895300</v>
+        <v>2852600</v>
       </c>
       <c r="E48" s="3">
+        <v>3143900</v>
+      </c>
+      <c r="F48" s="3">
         <v>1976300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1821900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1054400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1136100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1100100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1063200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1076500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1017000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1010000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1025200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1043300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1065700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1005300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1085100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1099000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1150100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1083600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1023600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1037200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1045300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3214,67 +3324,70 @@
         <v>8</v>
       </c>
       <c r="E49" s="3">
+        <v>109700</v>
+      </c>
+      <c r="F49" s="3">
         <v>1400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>38000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>15800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>19000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>497500</v>
+        <v>544400</v>
       </c>
       <c r="E52" s="3">
+        <v>112700</v>
+      </c>
+      <c r="F52" s="3">
         <v>72600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>66100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>55900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>58700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>43500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>41300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>34600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>19000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>20400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>146300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3623300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3612700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2335900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1994200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1207300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1297700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1247600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1227600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1253500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1255400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1259800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1285600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1314100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1328600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1307300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1334200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1305300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1339400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1327600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1284000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1268600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1300800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,67 +3804,70 @@
         <v>8</v>
       </c>
       <c r="E57" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F57" s="3">
         <v>9300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,339 +3875,354 @@
         <v>8</v>
       </c>
       <c r="E58" s="3">
+        <v>286500</v>
+      </c>
+      <c r="F58" s="3">
         <v>115400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>92300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>201800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>204600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>93500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>64800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>59800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>64700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>26700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>26800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>27800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>45000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>26600</v>
       </c>
       <c r="S58" s="3">
         <v>26600</v>
       </c>
       <c r="T58" s="3">
+        <v>26600</v>
+      </c>
+      <c r="U58" s="3">
         <v>27000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>36200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>22000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>74000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>116600</v>
+        <v>140400</v>
       </c>
       <c r="E59" s="3">
+        <v>93800</v>
+      </c>
+      <c r="F59" s="3">
         <v>43400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>45100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>65900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>41700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>23900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>24000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>28300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>21500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>21600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>116600</v>
+        <v>140400</v>
       </c>
       <c r="E60" s="3">
+        <v>403100</v>
+      </c>
+      <c r="F60" s="3">
         <v>168100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>150700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>253300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>277100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>141200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>86300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>79800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>83400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>46600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>52300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>54100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>71800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>52500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>54200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>56300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>68600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>51200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>99000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1458300</v>
+        <v>1361700</v>
       </c>
       <c r="E61" s="3">
+        <v>1171900</v>
+      </c>
+      <c r="F61" s="3">
         <v>680100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>608900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>285000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>301000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>394600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>411200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>429200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>390500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>473400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>473900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>480700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>483800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>449500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>460200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>466900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>473500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>438800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>402500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>449700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>512300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>351500</v>
+      </c>
+      <c r="E62" s="3">
         <v>385000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>225700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>238100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>19500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>22600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>25600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>39700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1960000</v>
+        <v>1853600</v>
       </c>
       <c r="E66" s="3">
+        <v>2013700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1073900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>997700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>552400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>592900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>551200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>513400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>525500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>491000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>509400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>524700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>537400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>545300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>531700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>526200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>537600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>549400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>547700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>479300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>588400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>619000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4516,67 +4683,70 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F70" s="3">
         <v>15000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>9700</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>2800</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>3800</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>3700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>4000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>4300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>5600</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>5400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>5600</v>
-      </c>
-      <c r="O70" s="3">
-        <v>5800</v>
       </c>
       <c r="P70" s="3">
         <v>5800</v>
       </c>
       <c r="Q70" s="3">
+        <v>5800</v>
+      </c>
+      <c r="R70" s="3">
         <v>5700</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>6400</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>5500</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>5900</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>5700</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>5600</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>3100</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4813,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1652700</v>
+        <v>1769700</v>
       </c>
       <c r="E76" s="3">
+        <v>1577200</v>
+      </c>
+      <c r="F76" s="3">
         <v>1247000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>986800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>652000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>701000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>692800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>710200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>723700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>758800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>745100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>755300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>771000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>777500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>769900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>801600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>762200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>784100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>774100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>799100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>677100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>162100</v>
+        <v>117500</v>
       </c>
       <c r="E81" s="3">
+        <v>395400</v>
+      </c>
+      <c r="F81" s="3">
         <v>97900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>133900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-49200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-62900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-28900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-22400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,67 +5425,70 @@
         <v>8</v>
       </c>
       <c r="E83" s="3">
+        <v>67300</v>
+      </c>
+      <c r="F83" s="3">
         <v>22100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>14600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>13200</v>
       </c>
       <c r="M83" s="3">
         <v>13200</v>
       </c>
       <c r="N83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="O83" s="3">
         <v>13500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>14500</v>
       </c>
       <c r="P83" s="3">
         <v>14500</v>
       </c>
       <c r="Q83" s="3">
+        <v>14500</v>
+      </c>
+      <c r="R83" s="3">
         <v>14400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>16200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>18700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>16800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>16600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>70900</v>
+        <v>129000</v>
       </c>
       <c r="E89" s="3">
+        <v>148200</v>
+      </c>
+      <c r="F89" s="3">
         <v>61100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>26700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>23300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>17700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>19400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>24800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>27400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>12300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>21900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5729,55 +5949,55 @@
         <v>8</v>
       </c>
       <c r="E91" s="3">
+        <v>-213800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-143400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-33900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-37300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-79200</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-57200</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>30500</v>
+        <v>-3200</v>
       </c>
       <c r="E94" s="3">
+        <v>-103100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-139200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-38700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-36300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3700</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-5400</v>
       </c>
       <c r="O94" s="3">
         <v>-5400</v>
       </c>
       <c r="P94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-34800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-167800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-109800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>98000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-15300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6027,10 +6260,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-600</v>
       </c>
       <c r="G96" s="3">
         <v>-600</v>
@@ -6039,7 +6272,7 @@
         <v>-600</v>
       </c>
       <c r="I96" s="3">
-        <v>-3400</v>
+        <v>-600</v>
       </c>
       <c r="J96" s="3">
         <v>-3400</v>
@@ -6054,16 +6287,16 @@
         <v>-3400</v>
       </c>
       <c r="N96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="O96" s="3">
         <v>-3500</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-3400</v>
       </c>
       <c r="P96" s="3">
         <v>-3400</v>
       </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-193100</v>
+        <v>-97600</v>
       </c>
       <c r="E100" s="3">
+        <v>65400</v>
+      </c>
+      <c r="F100" s="3">
         <v>259600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>18500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-36600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-22800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>12000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>25900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>85300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>65600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-29800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-91700</v>
+        <v>28300</v>
       </c>
       <c r="E102" s="3">
+        <v>110500</v>
+      </c>
+      <c r="F102" s="3">
         <v>181500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>17300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-55100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-31900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>94300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-23200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>NMM</t>
   </si>
@@ -773,7 +773,7 @@
         <v>268100</v>
       </c>
       <c r="E8" s="3">
-        <v>445000</v>
+        <v>228000</v>
       </c>
       <c r="F8" s="3">
         <v>152000</v>
@@ -841,10 +841,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27600</v>
+        <v>19800</v>
       </c>
       <c r="E9" s="3">
-        <v>45700</v>
+        <v>18700</v>
       </c>
       <c r="F9" s="3">
         <v>9000</v>
@@ -912,10 +912,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>240500</v>
+        <v>248300</v>
       </c>
       <c r="E10" s="3">
-        <v>399300</v>
+        <v>209300</v>
       </c>
       <c r="F10" s="3">
         <v>143000</v>
@@ -1155,7 +1155,7 @@
         <v>7600</v>
       </c>
       <c r="E14" s="3">
-        <v>-45100</v>
+        <v>-1100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>45500</v>
       </c>
       <c r="E15" s="3">
-        <v>67300</v>
+        <v>32100</v>
       </c>
       <c r="F15" s="3">
         <v>22100</v>
@@ -1321,7 +1321,7 @@
         <v>139800</v>
       </c>
       <c r="E17" s="3">
-        <v>134700</v>
+        <v>86200</v>
       </c>
       <c r="F17" s="3">
         <v>45500</v>
@@ -1392,7 +1392,7 @@
         <v>128300</v>
       </c>
       <c r="E18" s="3">
-        <v>310300</v>
+        <v>141800</v>
       </c>
       <c r="F18" s="3">
         <v>106500</v>
@@ -1490,7 +1490,7 @@
         <v>-11800</v>
       </c>
       <c r="E20" s="3">
-        <v>84500</v>
+        <v>16400</v>
       </c>
       <c r="F20" s="3">
         <v>-6600</v>
@@ -1558,10 +1558,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>94700</v>
+        <v>162000</v>
       </c>
       <c r="E21" s="3">
-        <v>462100</v>
+        <v>190300</v>
       </c>
       <c r="F21" s="3">
         <v>122000</v>
@@ -1703,7 +1703,7 @@
         <v>116500</v>
       </c>
       <c r="E23" s="3">
-        <v>394800</v>
+        <v>158200</v>
       </c>
       <c r="F23" s="3">
         <v>99900</v>
@@ -1916,7 +1916,7 @@
         <v>116500</v>
       </c>
       <c r="E26" s="3">
-        <v>394800</v>
+        <v>158200</v>
       </c>
       <c r="F26" s="3">
         <v>99900</v>
@@ -1984,10 +1984,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>117500</v>
+        <v>115200</v>
       </c>
       <c r="E27" s="3">
-        <v>395400</v>
+        <v>158800</v>
       </c>
       <c r="F27" s="3">
         <v>97900</v>
@@ -2342,7 +2342,7 @@
         <v>11800</v>
       </c>
       <c r="E32" s="3">
-        <v>-84500</v>
+        <v>-16400</v>
       </c>
       <c r="F32" s="3">
         <v>6600</v>
@@ -2410,10 +2410,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>117500</v>
+        <v>115200</v>
       </c>
       <c r="E33" s="3">
-        <v>395400</v>
+        <v>158800</v>
       </c>
       <c r="F33" s="3">
         <v>97900</v>
@@ -2552,10 +2552,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>117500</v>
+        <v>115200</v>
       </c>
       <c r="E35" s="3">
-        <v>395400</v>
+        <v>158800</v>
       </c>
       <c r="F35" s="3">
         <v>97900</v>
@@ -2753,7 +2753,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>169400</v>
+        <v>159500</v>
       </c>
       <c r="E41" s="3">
         <v>132200</v>
@@ -2894,8 +2894,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>23800</v>
       </c>
       <c r="E43" s="3">
         <v>29200</v>
@@ -3037,7 +3037,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>56900</v>
+        <v>43100</v>
       </c>
       <c r="E45" s="3">
         <v>58500</v>
@@ -3178,8 +3178,8 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>81600</v>
       </c>
       <c r="E47" s="3">
         <v>26400</v>
@@ -3250,7 +3250,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2852600</v>
+        <v>3096900</v>
       </c>
       <c r="E48" s="3">
         <v>3143900</v>
@@ -3320,8 +3320,8 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>100400</v>
       </c>
       <c r="E49" s="3">
         <v>109700</v>
@@ -3534,7 +3534,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>544400</v>
+        <v>118100</v>
       </c>
       <c r="E52" s="3">
         <v>112700</v>
@@ -3800,8 +3800,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>21100</v>
       </c>
       <c r="E57" s="3">
         <v>22800</v>
@@ -3871,8 +3871,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>255100</v>
       </c>
       <c r="E58" s="3">
         <v>286500</v>
@@ -3943,7 +3943,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>140400</v>
+        <v>119300</v>
       </c>
       <c r="E59" s="3">
         <v>93800</v>
@@ -4014,7 +4014,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>140400</v>
+        <v>395500</v>
       </c>
       <c r="E60" s="3">
         <v>403100</v>
@@ -4085,7 +4085,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1361700</v>
+        <v>1106600</v>
       </c>
       <c r="E61" s="3">
         <v>1171900</v>
@@ -4680,7 +4680,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="E70" s="3">
         <v>21800</v>
@@ -5106,7 +5106,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1769700</v>
+        <v>1743700</v>
       </c>
       <c r="E76" s="3">
         <v>1577200</v>
@@ -5324,10 +5324,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>117500</v>
+        <v>115200</v>
       </c>
       <c r="E81" s="3">
-        <v>395400</v>
+        <v>158800</v>
       </c>
       <c r="F81" s="3">
         <v>97900</v>
@@ -5421,11 +5421,11 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>45500</v>
       </c>
       <c r="E83" s="3">
-        <v>67300</v>
+        <v>32100</v>
       </c>
       <c r="F83" s="3">
         <v>22100</v>
@@ -5851,7 +5851,7 @@
         <v>129000</v>
       </c>
       <c r="E89" s="3">
-        <v>148200</v>
+        <v>70900</v>
       </c>
       <c r="F89" s="3">
         <v>61100</v>
@@ -5945,11 +5945,11 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-3300</v>
       </c>
       <c r="E91" s="3">
-        <v>-213800</v>
+        <v>-33300</v>
       </c>
       <c r="F91" s="3">
         <v>-143400</v>
@@ -6162,7 +6162,7 @@
         <v>-3200</v>
       </c>
       <c r="E94" s="3">
-        <v>-103100</v>
+        <v>30500</v>
       </c>
       <c r="F94" s="3">
         <v>-139200</v>
@@ -6257,10 +6257,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E96" s="3">
-        <v>-3100</v>
+        <v>-1400</v>
       </c>
       <c r="F96" s="3">
         <v>-1100</v>
@@ -6544,7 +6544,7 @@
         <v>-97600</v>
       </c>
       <c r="E100" s="3">
-        <v>65400</v>
+        <v>-193100</v>
       </c>
       <c r="F100" s="3">
         <v>259600</v>
@@ -6686,7 +6686,7 @@
         <v>28300</v>
       </c>
       <c r="E102" s="3">
-        <v>110500</v>
+        <v>-91700</v>
       </c>
       <c r="F102" s="3">
         <v>181500</v>

--- a/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>NMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>236600</v>
+      </c>
+      <c r="E8" s="3">
         <v>268100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>228000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>152000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>65100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>69200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>64500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>46500</v>
       </c>
       <c r="K8" s="3">
         <v>46500</v>
       </c>
       <c r="L8" s="3">
+        <v>46500</v>
+      </c>
+      <c r="M8" s="3">
         <v>61300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>63500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>47700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>46800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>57500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>62600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>58200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>53100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>59300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>60000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>50000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>42400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>49700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E9" s="3">
         <v>19800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>208300</v>
+      </c>
+      <c r="E10" s="3">
         <v>248300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>209300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>143000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>57500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>64200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>58200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>42200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>40900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>55500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>59100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>43700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>41700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>52700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>58900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>53900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>49700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>56300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>56400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>48400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>39300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>46700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,150 +1163,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>7600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-44100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>63000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>29300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>7300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>37900</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>32700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-4100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>10000</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E15" s="3">
         <v>45500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>32100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>22100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>13100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>14600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>14200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>13700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>13600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>13400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>13200</v>
       </c>
       <c r="N15" s="3">
         <v>13200</v>
       </c>
       <c r="O15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="P15" s="3">
         <v>13500</v>
-      </c>
-      <c r="P15" s="3">
-        <v>14500</v>
       </c>
       <c r="Q15" s="3">
         <v>14500</v>
       </c>
       <c r="R15" s="3">
+        <v>14500</v>
+      </c>
+      <c r="S15" s="3">
         <v>14400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>14900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>16200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>21100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>18700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>16800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>16600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E17" s="3">
         <v>139800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>86200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>114500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>51900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>54400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>52100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>73300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>44000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>46600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>46300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>44500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>79500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>39700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>74000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>41900</v>
-      </c>
-      <c r="V17" s="3">
-        <v>38200</v>
       </c>
       <c r="W17" s="3">
         <v>38200</v>
       </c>
       <c r="X17" s="3">
+        <v>38200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>44300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E18" s="3">
         <v>128300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>141800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>106500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>62100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-45300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>25000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>18100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-21300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-14700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>18100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>11800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-11800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>16400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>74600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-50900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-10200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>128500</v>
+      </c>
+      <c r="E21" s="3">
         <v>162000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>190300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>122000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>149800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-35600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>21100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-49600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>30000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>15000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>25000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-15200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-6600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>40100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>31300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>21500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>22100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1680,93 +1720,99 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>9900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10400</v>
-      </c>
-      <c r="X22" s="3">
-        <v>7600</v>
       </c>
       <c r="Y22" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E23" s="3">
         <v>116500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>158200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>99900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>136700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-50200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-62900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-29500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-22800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E26" s="3">
         <v>116500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>158200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>99900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>136700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-50200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-62900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-29500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-22800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>9200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E27" s="3">
         <v>115200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>158800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>97900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>133900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-49200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-62900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-28900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-22400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>9100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E32" s="3">
         <v>11800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-16400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-74600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>50900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>10200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>10700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E33" s="3">
         <v>115200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>158800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>97900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>133900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-49200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-62900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-28900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-22400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E35" s="3">
         <v>115200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>158800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>97900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>133900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-49200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-62900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-28900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-22400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>108200</v>
+      </c>
+      <c r="E41" s="3">
         <v>159500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>132200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>227100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>43500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>33900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>47500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>58600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>53500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>40600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>48300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>24000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>24700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>79700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>111600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>17400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,79 +2979,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3">
         <v>23800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>29200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>20900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>25400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>22000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>22800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>25000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>35100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>33000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>33100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>44300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>47800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>28500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>27600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>28400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>29500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>44800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>46600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>34400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>29700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,363 +3127,381 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100400</v>
+      </c>
+      <c r="E45" s="3">
         <v>43100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>58500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>34000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>69800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>208600</v>
+      </c>
+      <c r="E46" s="3">
         <v>226300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>219900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>282000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>96400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>60800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>67100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>67600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>70900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>76000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>67000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>76000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>96900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>111100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>89400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>137900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>80100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>60300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>78000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>134100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>154600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>56300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
         <v>81600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>34200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>33500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>33800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>49400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>63200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>140100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>150700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>142200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>139000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>154400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>143300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>143100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>118900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>84400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>53700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>69600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>9800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2819300</v>
+      </c>
+      <c r="E48" s="3">
         <v>3096900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3143900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1976300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1821900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1054400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1136100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1100100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1063200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1076500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1017000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1010000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1025200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1043300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1065700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1005300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1085100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1099000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1150100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1083600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1023600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1037200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1045300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3">
         <v>100400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>109700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>38000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>15800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>19000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>556500</v>
+      </c>
+      <c r="E52" s="3">
         <v>118100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>112700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>72600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>66100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>55900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>58700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>43500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>41300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>34600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>27900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>19300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>19000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>20400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>146300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3584400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3623300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3612700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2335900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1994200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1207300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1297700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1247600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1227600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1253500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1255400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1259800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1285600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1314100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1328600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1307300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1334200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1305300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1339400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1327600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1284000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1268600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1300800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3">
         <v>21100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
         <v>255100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>286500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>115400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>92300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>201800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>204600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>93500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>64800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>59800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>64700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>26700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>26800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>27800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>45000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>26600</v>
       </c>
       <c r="T58" s="3">
         <v>26600</v>
       </c>
       <c r="U58" s="3">
+        <v>26600</v>
+      </c>
+      <c r="V58" s="3">
         <v>27000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>36200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>22000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>74000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E59" s="3">
         <v>119300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>93800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>45100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>65900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>41700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>20700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>23000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>23900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>24000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>28300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>21500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>21600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E60" s="3">
         <v>395500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>403100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>168100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>150700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>253300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>277100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>141200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>86300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>79800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>83400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>46600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>52300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>54100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>71800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>52500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>54200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>56300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>68600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>51200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>99000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1319800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1106600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1171900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>680100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>608900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>285000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>301000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>394600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>411200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>429200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>390500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>473400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>473900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>480700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>483800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>449500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>460200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>466900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>473500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>438800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>402500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>449700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>512300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>330100</v>
+      </c>
+      <c r="E62" s="3">
         <v>351500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>385000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>225700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>238100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>19500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>22600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>25600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>39700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1730500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1853600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2013700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1073900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>997700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>552400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>592900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>551200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>513400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>525500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>491000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>509400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>524700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>537400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>545300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>531700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>526200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>537600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>549400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>547700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>479300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>588400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>619000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,79 +4839,85 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>26000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>21800</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>15000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>9700</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>2800</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>3800</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>3700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>4000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>4300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>5600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>5400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>5600</v>
-      </c>
-      <c r="P70" s="3">
-        <v>5800</v>
       </c>
       <c r="Q70" s="3">
         <v>5800</v>
       </c>
       <c r="R70" s="3">
+        <v>5800</v>
+      </c>
+      <c r="S70" s="3">
         <v>5700</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>6400</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>5500</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>5900</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>5700</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>5600</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>3100</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,8 +4987,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1853900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1743700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1577200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1247000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>986800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>652000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>701000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>692800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>710200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>723700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>758800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>745100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>755300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>771000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>777500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>769900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>801600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>762200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>784100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>774100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>799100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>677100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E81" s="3">
         <v>115200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>158800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>97900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>133900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-49200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-62900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-28900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-22400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3">
         <v>45500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>32100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>13200</v>
       </c>
       <c r="N83" s="3">
         <v>13200</v>
       </c>
       <c r="O83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="P83" s="3">
         <v>13500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>14500</v>
       </c>
       <c r="Q83" s="3">
         <v>14500</v>
       </c>
       <c r="R83" s="3">
+        <v>14500</v>
+      </c>
+      <c r="S83" s="3">
         <v>14400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>16200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>18700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>16800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>16600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E89" s="3">
         <v>129000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>70900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>61100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>23300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>17700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>19400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>24800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>27400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>12300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>21900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,67 +6160,68 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-33300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-143400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-37000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-33900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-79200</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-57200</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>8</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>30500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-139200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-38700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-36300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3700</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-5400</v>
       </c>
       <c r="P94" s="3">
         <v>-5400</v>
       </c>
       <c r="Q94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="R94" s="3">
         <v>-14100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-34800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-13600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-167800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-109800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>98000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-15300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,22 +6484,23 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-600</v>
       </c>
       <c r="H96" s="3">
         <v>-600</v>
@@ -6275,7 +6509,7 @@
         <v>-600</v>
       </c>
       <c r="J96" s="3">
-        <v>-3400</v>
+        <v>-600</v>
       </c>
       <c r="K96" s="3">
         <v>-3400</v>
@@ -6290,16 +6524,16 @@
         <v>-3400</v>
       </c>
       <c r="O96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="P96" s="3">
         <v>-3500</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-3400</v>
       </c>
       <c r="Q96" s="3">
         <v>-3400</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-97600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-193100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>259600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>18500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-36600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-22800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>12000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>25900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>85300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>65600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-29800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="E102" s="3">
         <v>28300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-91700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>181500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-15100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>17300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-55100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-31900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>94300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-23200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>NMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>280700</v>
+      </c>
+      <c r="E8" s="3">
         <v>236600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>268100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>228000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>152000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>65100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>69200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>64500</v>
-      </c>
-      <c r="K8" s="3">
-        <v>46500</v>
       </c>
       <c r="L8" s="3">
         <v>46500</v>
       </c>
       <c r="M8" s="3">
+        <v>46500</v>
+      </c>
+      <c r="N8" s="3">
         <v>61300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>63500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>47700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>46800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>57500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>62600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>58200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>53100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>59300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>60000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>50000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>42400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>49700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>28300</v>
+        <v>26900</v>
       </c>
       <c r="E9" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F9" s="3">
         <v>19800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>208300</v>
+        <v>253800</v>
       </c>
       <c r="E10" s="3">
+        <v>215900</v>
+      </c>
+      <c r="F10" s="3">
         <v>248300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>209300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>143000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>57500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>64200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>58200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>42200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>40900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>55500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>59100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>43700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>41700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>52700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>58900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>53900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>49700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>56300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>56400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>48400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>39300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>46700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>7600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-44100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>63000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>29300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>7300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>37900</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>32700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-4100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>10000</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E15" s="3">
         <v>42900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>45500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>32100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>13100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>14600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>14200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>13700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>13600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>13400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>13200</v>
       </c>
       <c r="O15" s="3">
         <v>13200</v>
       </c>
       <c r="P15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="Q15" s="3">
         <v>13500</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>14500</v>
       </c>
       <c r="R15" s="3">
         <v>14500</v>
       </c>
       <c r="S15" s="3">
+        <v>14500</v>
+      </c>
+      <c r="T15" s="3">
         <v>14400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>14900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>16200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>21100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>18700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>16800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>16600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E17" s="3">
         <v>137700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>139800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>86200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>45500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>114500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>51900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>54400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>52100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>73300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>44000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>46600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>46300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>44500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>79500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>39700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>74000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>41900</v>
-      </c>
-      <c r="W17" s="3">
-        <v>38200</v>
       </c>
       <c r="X17" s="3">
         <v>38200</v>
       </c>
       <c r="Y17" s="3">
+        <v>38200</v>
+      </c>
+      <c r="Z17" s="3">
         <v>44300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>132700</v>
+      </c>
+      <c r="E18" s="3">
         <v>98900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>128300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>141800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>106500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>62100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-45300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>25000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>18100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-21300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-14700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>18100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>11800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>5400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-13200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-11800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>74600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-50900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-10200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-10700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-8100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>159800</v>
+      </c>
+      <c r="E21" s="3">
         <v>128500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>162000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>190300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>122000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>149800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-35600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>21100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-49600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>30000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>15000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>25000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-15200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-6600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>40100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>31300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>21500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>22100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1723,96 +1763,102 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>9900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10400</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>7600</v>
       </c>
       <c r="Z22" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E23" s="3">
         <v>85700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>116500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>158200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>99900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>136700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-50200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-62900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-29500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-22800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E26" s="3">
         <v>85700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>116500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>158200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>99900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>136700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-50200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-62900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-29500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-22800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>9200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E27" s="3">
         <v>85700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>115200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>158800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>97900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>133900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-49200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-62900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-28900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-22400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>9100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E32" s="3">
         <v>13200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>11800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-74600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>50900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>10200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>10700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E33" s="3">
         <v>85700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>115200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>158800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>97900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>133900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-49200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-62900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-28900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-22400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>9100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E35" s="3">
         <v>85700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>115200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>158800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>97900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>133900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-49200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-62900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-28900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-22400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>9100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>108200</v>
+        <v>163400</v>
       </c>
       <c r="E41" s="3">
+        <v>96500</v>
+      </c>
+      <c r="F41" s="3">
         <v>159500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>132200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>227100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>43500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>33900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>47500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>58600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>53500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>40600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>48300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>24000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>24700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>79700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>111600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>17400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,82 +3072,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>56500</v>
       </c>
       <c r="E43" s="3">
+        <v>56700</v>
+      </c>
+      <c r="F43" s="3">
         <v>23800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>29200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>20900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>25400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>22000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>22800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>35100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>33000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>33100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>44300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>47800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>28500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>27600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>28400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>29500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>44800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>46600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>34400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>29700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,378 +3226,396 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100400</v>
+        <v>72900</v>
       </c>
       <c r="E45" s="3">
+        <v>55400</v>
+      </c>
+      <c r="F45" s="3">
         <v>43100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>58500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>34000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>69800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>8600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>9300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>292700</v>
+      </c>
+      <c r="E46" s="3">
         <v>208600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>226300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>219900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>282000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>96400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>60800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>67100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>67600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>70900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>76000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>67000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>76000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>96900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>111100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>89400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>137900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>80100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>60300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>78000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>134100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>154600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>56300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>143800</v>
       </c>
       <c r="E47" s="3">
+        <v>100900</v>
+      </c>
+      <c r="F47" s="3">
         <v>81600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>26400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>34200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>33500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>33800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>49400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>63200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>140100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>150700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>142200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>139000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>154400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>143300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>143100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>118900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>84400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>53700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>69600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>9800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2819300</v>
+        <v>3022700</v>
       </c>
       <c r="E48" s="3">
+        <v>3059400</v>
+      </c>
+      <c r="F48" s="3">
         <v>3096900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3143900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1976300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1821900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1054400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1136100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1100100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1063200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1076500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1017000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1010000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1025200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1043300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1065700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1005300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1085100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1099000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1150100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1083600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1023600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1037200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1045300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>88000</v>
       </c>
       <c r="E49" s="3">
+        <v>93600</v>
+      </c>
+      <c r="F49" s="3">
         <v>100400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>109700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>9400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>38000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>15800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>19000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>556500</v>
+        <v>131900</v>
       </c>
       <c r="E52" s="3">
+        <v>121900</v>
+      </c>
+      <c r="F52" s="3">
         <v>118100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>112700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>72600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>66100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>55900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>58700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>43500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>41300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>34600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>27900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>19300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>18800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>19000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>17400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>18100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>20400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>146300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3679200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3584400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3623300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3612700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2335900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1994200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1207300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1297700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1247600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1227600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1253500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1255400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1259800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1285600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1314100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1328600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1307300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1334200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1305300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1339400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1327600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1284000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1268600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1300800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>29500</v>
       </c>
       <c r="E57" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F57" s="3">
         <v>21100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>221300</v>
       </c>
       <c r="E58" s="3">
+        <v>245200</v>
+      </c>
+      <c r="F58" s="3">
         <v>255100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>286500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>115400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>92300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>201800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>204600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>93500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>64800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>59800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>64700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>26700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>26800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>27800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>45000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>26600</v>
       </c>
       <c r="U58" s="3">
         <v>26600</v>
       </c>
       <c r="V58" s="3">
+        <v>26600</v>
+      </c>
+      <c r="W58" s="3">
         <v>27000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>36200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>22000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>74000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80600</v>
+        <v>59300</v>
       </c>
       <c r="E59" s="3">
+        <v>55500</v>
+      </c>
+      <c r="F59" s="3">
         <v>119300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>93800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>45100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>65900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>41700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>20700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>23000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>21700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>23900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>24000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>28300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>21500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>21600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>80600</v>
+        <v>310100</v>
       </c>
       <c r="E60" s="3">
+        <v>325800</v>
+      </c>
+      <c r="F60" s="3">
         <v>395500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>403100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>168100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>150700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>253300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>277100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>141200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>86300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>79800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>83400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>32200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>46600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>52300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>54100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>71800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>52500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>54200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>56300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>68600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>51200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>99000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1319800</v>
+        <v>1066000</v>
       </c>
       <c r="E61" s="3">
+        <v>1074700</v>
+      </c>
+      <c r="F61" s="3">
         <v>1106600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1171900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>680100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>608900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>285000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>301000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>394600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>411200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>429200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>390500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>473400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>473900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>480700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>483800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>449500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>460200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>466900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>473500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>438800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>402500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>449700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>512300</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>332500</v>
+      </c>
+      <c r="E62" s="3">
         <v>330100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>351500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>385000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>225700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>238100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>19500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>22600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>25600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>39700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1708600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1730500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1853600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2013700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1073900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>997700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>552400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>592900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>551200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>513400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>525500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>491000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>509400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>524700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>537400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>545300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>531700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>526200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>537600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>549400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>547700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>479300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>588400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>619000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,82 +5007,88 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="E70" s="3">
+        <v>27700</v>
+      </c>
+      <c r="F70" s="3">
         <v>26000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>21800</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>15000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>9700</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>2800</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>3800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>4000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>4300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>5600</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>5400</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>5600</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>5800</v>
       </c>
       <c r="R70" s="3">
         <v>5800</v>
       </c>
       <c r="S70" s="3">
+        <v>5800</v>
+      </c>
+      <c r="T70" s="3">
         <v>5700</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>6400</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>5500</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>5900</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>5700</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>5600</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>3100</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,8 +5161,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1853900</v>
+        <v>1940500</v>
       </c>
       <c r="E76" s="3">
+        <v>1826200</v>
+      </c>
+      <c r="F76" s="3">
         <v>1743700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1577200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1247000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>986800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>652000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>701000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>692800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>710200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>723700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>758800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>745100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>755300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>771000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>777500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>769900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>801600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>762200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>784100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>774100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>799100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>677100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E81" s="3">
         <v>85700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>115200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>158800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>97900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>133900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-49200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-62900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-28900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-22400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>9100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>41700</v>
       </c>
       <c r="E83" s="3">
+        <v>42900</v>
+      </c>
+      <c r="F83" s="3">
         <v>45500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>32100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>13200</v>
       </c>
       <c r="O83" s="3">
         <v>13200</v>
       </c>
       <c r="P83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>13500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>14500</v>
       </c>
       <c r="R83" s="3">
         <v>14500</v>
       </c>
       <c r="S83" s="3">
+        <v>14500</v>
+      </c>
+      <c r="T83" s="3">
         <v>14400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>16200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>18700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>16800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>16600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>129000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>70900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>61100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>23300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>32700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>17700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>19400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>24800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>16000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>27400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>12300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>21900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,70 +6381,71 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-3600</v>
       </c>
       <c r="E91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-33300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-143400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-37000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-33900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-79200</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-57200</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>30500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-139200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-36300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3700</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-5400</v>
       </c>
       <c r="Q94" s="3">
         <v>-5400</v>
       </c>
       <c r="R94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="S94" s="3">
         <v>-14100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-34800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-13600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-167800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-109800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>98000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-15300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,25 +6718,26 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E96" s="3">
         <v>-1500</v>
       </c>
       <c r="F96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-600</v>
       </c>
       <c r="I96" s="3">
         <v>-600</v>
@@ -6512,7 +6746,7 @@
         <v>-600</v>
       </c>
       <c r="K96" s="3">
-        <v>-3400</v>
+        <v>-600</v>
       </c>
       <c r="L96" s="3">
         <v>-3400</v>
@@ -6527,16 +6761,16 @@
         <v>-3400</v>
       </c>
       <c r="P96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-3500</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-3400</v>
       </c>
       <c r="R96" s="3">
         <v>-3400</v>
       </c>
       <c r="S96" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="T96" s="3">
         <v>0</v>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-44700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-97600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-193100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>259600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>18500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-16900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-36600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-22800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>12000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>25900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>85300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>65600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-29800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-61300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>28300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-91700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>181500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>20700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-15100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>17300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>18700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-55100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-31900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>94300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-23200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>NMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>370900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>322400</v>
+      </c>
+      <c r="F8" s="3">
         <v>280700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>236600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>268100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>228000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>152000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>65100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>69200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>64500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>46500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>46500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>61300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>63500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>47700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>46800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>57500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>62600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>58200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>53100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>59300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>60000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>50000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>42400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>49700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>50800</v>
+      </c>
+      <c r="F9" s="3">
         <v>26900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>20700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>19800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>18700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>9000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>6300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>5100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>3700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>4300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>3400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>3000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>3600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>3100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>3000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>305300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>271600</v>
+      </c>
+      <c r="F10" s="3">
         <v>253800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>215900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>248300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>209300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>143000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>57500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>64200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>58200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>42200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>40900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>55500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>59100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>43700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>41700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>52700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>58900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>53900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>49700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>56300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>56400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>48400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>39300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>46700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,162 +1219,180 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>7600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-1100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-44100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>63000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>6800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>6900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>29300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>7300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>1200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>5300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>37900</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>32700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>-4100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>10000</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>59300</v>
+      </c>
+      <c r="F15" s="3">
         <v>41700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>42900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>45500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>32100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>22100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>13100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>14600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>14200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>13700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>13600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>13400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>13200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>13200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>13500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>14500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>14500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>14400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>14900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>16200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>21100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>18700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>16800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>16600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>225900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>186800</v>
+      </c>
+      <c r="F17" s="3">
         <v>148000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>137700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>139800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>86200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>45500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>114500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>51900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>54400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>52100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>73300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>38500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>44000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>46600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>46300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>44500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>79500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>39700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>74000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>41900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>38200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>38200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>44300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>135600</v>
+      </c>
+      <c r="F18" s="3">
         <v>132700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>98900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>128300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>141800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>106500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>62100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-45300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>12600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-7900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-12000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>25000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>3700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>11200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>18100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-21300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>13400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-14700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>18100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>11800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>4200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>5400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1614,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>121600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-14500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-13200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-11800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>16400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-6600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>74600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-6800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-50900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-8200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-9700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-10700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-7700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-8200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-7900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-8100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>231900</v>
+      </c>
+      <c r="F21" s="3">
         <v>159800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>128500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>162000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>190300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>122000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>149800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-35600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>21100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-49600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>30000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>6700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>4000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>15000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>25000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-15200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>20400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-6600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>40100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>31300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>21500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>22100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1766,99 +1845,111 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>9900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>8100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>10400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>7600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>257200</v>
+      </c>
+      <c r="F23" s="3">
         <v>118200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>85700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>116500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>158200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>99900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>136700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-50200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>7000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-14600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-10700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-62900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>16900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-9500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>10500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-29500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>5500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-22800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>9200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>4400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>257200</v>
+      </c>
+      <c r="F26" s="3">
         <v>118200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>85700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>116500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>158200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>99900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>136700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-50200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-14600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-10700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-62900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>16900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-9500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>10500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-29500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>5500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-22800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>9200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>4400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>257200</v>
+      </c>
+      <c r="F27" s="3">
         <v>118200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>85700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>115200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>158800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>97900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>133900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-49200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>6900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-14300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-10500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-62900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>16900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-9500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>10200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-28900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>5400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-22400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>9100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>4000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-121600</v>
+      </c>
+      <c r="F32" s="3">
         <v>14500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>13200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>11800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-16400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>6600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-74600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>6800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>50900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>8200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>10200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>9700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>10700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>7700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>8200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>7900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>8100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>257200</v>
+      </c>
+      <c r="F33" s="3">
         <v>118200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>85700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>115200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>158800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>97900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>133900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-49200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>6900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-14300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-10500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-62900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>16900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-9500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>10200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-28900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>5400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-22400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>9100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>4000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>257200</v>
+      </c>
+      <c r="F35" s="3">
         <v>118200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>85700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>115200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>158800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>97900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>133900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-49200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>6900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-14300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-10500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-62900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>16900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-9500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>10200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-28900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>5400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-22400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>9100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>4000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3092,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>175100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>110300</v>
+      </c>
+      <c r="F41" s="3">
         <v>163400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>96500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>159500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>132200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>227100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>43500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>19300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>22600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>23200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>22000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>23400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>24000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>33900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>47500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>58600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>53500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>40600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>48300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>24000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>24700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>79700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>111600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>17400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,85 +3254,97 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3">
         <v>56500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>56700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>23800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>29200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>20900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>25400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>22000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>22800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>25000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>27800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>35100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>33000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>33100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>44300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>47800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>28500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>27600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>28400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>29500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>44800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>46600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>34400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>29700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,393 +3420,429 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>129600</v>
+      </c>
+      <c r="F45" s="3">
         <v>72900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>55400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>43100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>58500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>34000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>27500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>19500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>21700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>19400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>21000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>17500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>10000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>9000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>5100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>4800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>7400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>69800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>3500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>6800</v>
-      </c>
-      <c r="W45" s="3">
-        <v>8600</v>
-      </c>
-      <c r="X45" s="3">
-        <v>7800</v>
       </c>
       <c r="Y45" s="3">
         <v>8600</v>
       </c>
       <c r="Z45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="AB45" s="3">
         <v>9300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>310400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>239900</v>
+      </c>
+      <c r="F46" s="3">
         <v>292700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>208600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>226300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>219900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>282000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>96400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>60800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>67100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>67600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>70900</v>
-      </c>
-      <c r="N46" s="3">
-        <v>76000</v>
-      </c>
-      <c r="O46" s="3">
-        <v>67000</v>
       </c>
       <c r="P46" s="3">
         <v>76000</v>
       </c>
       <c r="Q46" s="3">
+        <v>67000</v>
+      </c>
+      <c r="R46" s="3">
+        <v>76000</v>
+      </c>
+      <c r="S46" s="3">
         <v>96900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>111100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>89400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>137900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>80100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>60300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>78000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>134100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>154600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>56300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
         <v>143800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>100900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>81600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>26400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>3600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>8100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>34200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>33500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>33800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>49400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>63200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>140100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>150700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>142200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>139000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>154400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>143300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>143100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>118900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>84400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>53700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>69600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>9800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3777300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3794500</v>
+      </c>
+      <c r="F48" s="3">
         <v>3022700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3059400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3096900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3143900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1976300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1821900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1054400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1136100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1100100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1063200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1076500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1017000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1010000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1025200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1043300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1065700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1005300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1085100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1099000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1150100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1083600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1023600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1037200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1045300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
         <v>88000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>93600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>100400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>109700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>4000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>4300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>5000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>6000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>7100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>8100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>9400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>38000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>15800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>19000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>808000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>740200</v>
+      </c>
+      <c r="F52" s="3">
         <v>131900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>121900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>118100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>112700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>72600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>66100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>55900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>58700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>43500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>41300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>34600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>27900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>19300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>17400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>16500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>14200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>14800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>18800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>19000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>17400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>18100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>20400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>146300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4895700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4774500</v>
+      </c>
+      <c r="F54" s="3">
         <v>3679200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3584400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3623300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3612700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2335900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1994200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1207300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1297700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1247600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1227600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1253500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1255400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1259800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1285600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1314100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1328600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1307300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1334200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1305300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1339400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1327600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1284000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1268600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1300800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4316,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3">
         <v>29500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>25100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>21100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>22800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>9300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>9700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>6500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>6000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>7700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>8500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4000</v>
-      </c>
-      <c r="T57" s="3">
-        <v>3700</v>
-      </c>
-      <c r="U57" s="3">
-        <v>4200</v>
       </c>
       <c r="V57" s="3">
         <v>3700</v>
       </c>
       <c r="W57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="X57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Y57" s="3">
         <v>5200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>4200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>7700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>3300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
         <v>221300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>245200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>255100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>286500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>115400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>92300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>201800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>204600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>93500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>64800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>59800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>64700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>11700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>26700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>26800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>27800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>45000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>26600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>26600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>27000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>36200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>22000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>74000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>226600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>248400</v>
+      </c>
+      <c r="F59" s="3">
         <v>59300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>55500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>119300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>93800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>43400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>48700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>45100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>65900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>41700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>13700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>13500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>16400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>15700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>20700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>22200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>23000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>21700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>23900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>24000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>28300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>21500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>21600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>226600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>248400</v>
+      </c>
+      <c r="F60" s="3">
         <v>310100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>325800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>395500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>403100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>168100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>150700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>253300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>277100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>141200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>86300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>79800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>83400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>32200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>46600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>52300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>54100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>71800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>52500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>54200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>56300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>68600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>51200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>99000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1945400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1916600</v>
+      </c>
+      <c r="F61" s="3">
         <v>1066000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1074700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1106600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1171900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>680100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>608900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>285000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>301000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>394600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>411200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>429200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>390500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>473400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>473900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>480700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>483800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>449500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>460200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>466900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>473500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>438800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>402500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>449700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>512300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>380600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>383300</v>
+      </c>
+      <c r="F62" s="3">
         <v>332500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>330100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>351500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>385000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>225700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>238100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>14200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>14800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>15300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>15900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>16500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>17000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>4200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>4400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>7400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>10500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>13500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>16500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>19500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>22600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>25600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>39700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2552700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2548300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1708600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1730500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1853600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2013700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1073900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>997700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>552400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>592900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>551200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>513400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>525500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>491000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>509400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>524700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>537400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>545300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>531700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>526200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>537600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>549400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>547700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>479300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>588400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>619000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,85 +5339,97 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>30000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>27700</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>26000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>21800</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>15000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>9700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>2800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>3800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>3700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>4000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>4300</v>
-      </c>
-      <c r="O70" s="3">
-        <v>5600</v>
-      </c>
-      <c r="P70" s="3">
-        <v>5400</v>
       </c>
       <c r="Q70" s="3">
         <v>5600</v>
       </c>
       <c r="R70" s="3">
+        <v>5400</v>
+      </c>
+      <c r="S70" s="3">
+        <v>5600</v>
+      </c>
+      <c r="T70" s="3">
         <v>5800</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>5800</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>5700</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>6400</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>5500</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>5900</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>5700</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="AA70" s="3">
         <v>5600</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AB70" s="3">
         <v>3100</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AC70" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5505,14 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5241,8 +5588,14 @@
       <c r="AA72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2343000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2226200</v>
+      </c>
+      <c r="F76" s="3">
         <v>1940500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1826200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1743700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1577200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1247000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>986800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>652000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>701000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>692800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>710200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>723700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>758800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>745100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>755300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>771000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>777500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>769900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>801600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>762200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>784100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>774100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>799100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>677100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>257200</v>
+      </c>
+      <c r="F81" s="3">
         <v>118200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>85700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>115200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>158800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>97900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>133900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-49200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>6900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-14300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-10500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-62900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>16900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-9500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>10200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-28900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>5400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-22400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>9100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>4000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6209,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3">
         <v>41700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>42900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>45500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>32100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>22100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>13100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>14600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>14200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>13700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>13600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>13400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>13200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>13200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>13500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>14500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>14500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>14400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>14900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>16200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>21100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>18700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>16800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>16600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>140100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>219100</v>
+      </c>
+      <c r="F89" s="3">
         <v>142000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>5200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>129000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>70900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>61100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>16200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>25400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>21000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>26700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>20900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>23300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>32700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>10500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>17700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>19400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>24800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>6400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>16000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>27400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>12300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>21900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,76 +6821,78 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-33300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-143400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-37000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-33900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-37300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-9900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-5500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-2500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-79200</v>
       </c>
-      <c r="T91" s="3" t="s">
+      <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3" t="s">
+      <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-57200</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>8</v>
@@ -6459,8 +6900,14 @@
       <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-203900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-40200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-21700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>30500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-139200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>5600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-38700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-36300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-10200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>3700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-5400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-5400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-14100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-34800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-13600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-7700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-167800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-109800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>98000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-15300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,40 +7184,42 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-1500</v>
       </c>
       <c r="G96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-600</v>
       </c>
       <c r="K96" s="3">
         <v>-600</v>
       </c>
       <c r="L96" s="3">
-        <v>-3400</v>
+        <v>-600</v>
       </c>
       <c r="M96" s="3">
-        <v>-3400</v>
+        <v>-600</v>
       </c>
       <c r="N96" s="3">
         <v>-3400</v>
@@ -6764,19 +7231,19 @@
         <v>-3400</v>
       </c>
       <c r="Q96" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="R96" s="3">
         <v>-3400</v>
       </c>
       <c r="S96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="T96" s="3">
         <v>-3400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="V96" s="3">
         <v>0</v>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7512,97 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-35400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-44700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-97600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-193100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>259600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-19800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>18500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>8300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-16900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-8700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-36600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-16200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-9100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>12000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>2300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>25900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-9000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>85300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>65600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-29800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7678,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="F102" s="3">
         <v>66400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-61300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>28300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-91700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>181500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>20700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>4400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-9200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-11100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>3100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>17300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-7700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>18700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-55100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-31900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>94300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-23200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>NMM</t>
   </si>
@@ -868,10 +868,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>65600</v>
+        <v>46700</v>
       </c>
       <c r="E9" s="3">
-        <v>50800</v>
+        <v>34000</v>
       </c>
       <c r="F9" s="3">
         <v>26900</v>
@@ -951,10 +951,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>305300</v>
+        <v>324200</v>
       </c>
       <c r="E10" s="3">
-        <v>271600</v>
+        <v>288400</v>
       </c>
       <c r="F10" s="3">
         <v>253800</v>
@@ -1705,10 +1705,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>117000</v>
+        <v>176300</v>
       </c>
       <c r="E21" s="3">
-        <v>231900</v>
+        <v>316400</v>
       </c>
       <c r="F21" s="3">
         <v>159800</v>
@@ -2203,16 +2203,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>118300</v>
+        <v>115900</v>
       </c>
       <c r="E27" s="3">
-        <v>257200</v>
+        <v>252000</v>
       </c>
       <c r="F27" s="3">
-        <v>118200</v>
+        <v>115800</v>
       </c>
       <c r="G27" s="3">
-        <v>85700</v>
+        <v>84000</v>
       </c>
       <c r="H27" s="3">
         <v>115200</v>
@@ -2701,16 +2701,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>118300</v>
+        <v>115900</v>
       </c>
       <c r="E33" s="3">
-        <v>257200</v>
+        <v>252000</v>
       </c>
       <c r="F33" s="3">
-        <v>118200</v>
+        <v>115800</v>
       </c>
       <c r="G33" s="3">
-        <v>85700</v>
+        <v>84000</v>
       </c>
       <c r="H33" s="3">
         <v>115200</v>
@@ -2867,16 +2867,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>118300</v>
+        <v>115900</v>
       </c>
       <c r="E35" s="3">
-        <v>257200</v>
+        <v>252000</v>
       </c>
       <c r="F35" s="3">
-        <v>118200</v>
+        <v>115800</v>
       </c>
       <c r="G35" s="3">
-        <v>85700</v>
+        <v>84000</v>
       </c>
       <c r="H35" s="3">
         <v>115200</v>
@@ -3100,10 +3100,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>175100</v>
+        <v>157800</v>
       </c>
       <c r="E41" s="3">
-        <v>110300</v>
+        <v>92000</v>
       </c>
       <c r="F41" s="3">
         <v>163400</v>
@@ -3265,11 +3265,11 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>50100</v>
       </c>
       <c r="F43" s="3">
         <v>56500</v>
@@ -3432,10 +3432,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>135300</v>
+        <v>77600</v>
       </c>
       <c r="E45" s="3">
-        <v>129600</v>
+        <v>97800</v>
       </c>
       <c r="F45" s="3">
         <v>72900</v>
@@ -3597,11 +3597,11 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>260100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>176000</v>
       </c>
       <c r="F47" s="3">
         <v>143800</v>
@@ -3681,10 +3681,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3777300</v>
+        <v>4100400</v>
       </c>
       <c r="E48" s="3">
-        <v>3794500</v>
+        <v>4130300</v>
       </c>
       <c r="F48" s="3">
         <v>3022700</v>
@@ -3763,11 +3763,11 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>86300</v>
       </c>
       <c r="F49" s="3">
         <v>88000</v>
@@ -4013,10 +4013,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>808000</v>
+        <v>146100</v>
       </c>
       <c r="E52" s="3">
-        <v>740200</v>
+        <v>142100</v>
       </c>
       <c r="F52" s="3">
         <v>131900</v>
@@ -4323,11 +4323,11 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>31500</v>
       </c>
       <c r="F57" s="3">
         <v>29500</v>
@@ -4406,11 +4406,11 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>391100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>349400</v>
       </c>
       <c r="F58" s="3">
         <v>221300</v>
@@ -4490,10 +4490,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>226600</v>
+        <v>199500</v>
       </c>
       <c r="E59" s="3">
-        <v>248400</v>
+        <v>216900</v>
       </c>
       <c r="F59" s="3">
         <v>59300</v>
@@ -4573,10 +4573,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>226600</v>
+        <v>617700</v>
       </c>
       <c r="E60" s="3">
-        <v>248400</v>
+        <v>597900</v>
       </c>
       <c r="F60" s="3">
         <v>310100</v>
@@ -4656,10 +4656,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1945400</v>
+        <v>1554400</v>
       </c>
       <c r="E61" s="3">
-        <v>1916600</v>
+        <v>1567200</v>
       </c>
       <c r="F61" s="3">
         <v>1066000</v>
@@ -5351,10 +5351,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>35100</v>
       </c>
       <c r="F70" s="3">
         <v>30000</v>
@@ -5849,10 +5849,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2343000</v>
+        <v>2305500</v>
       </c>
       <c r="E76" s="3">
-        <v>2226200</v>
+        <v>2191100</v>
       </c>
       <c r="F76" s="3">
         <v>1940500</v>
@@ -6103,16 +6103,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>118300</v>
+        <v>115900</v>
       </c>
       <c r="E81" s="3">
-        <v>257200</v>
+        <v>252000</v>
       </c>
       <c r="F81" s="3">
-        <v>118200</v>
+        <v>115800</v>
       </c>
       <c r="G81" s="3">
-        <v>85700</v>
+        <v>84000</v>
       </c>
       <c r="H81" s="3">
         <v>115200</v>
@@ -6216,11 +6216,11 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>59300</v>
       </c>
       <c r="F83" s="3">
         <v>41700</v>
@@ -6828,11 +6828,11 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-389100</v>
       </c>
       <c r="F91" s="3">
         <v>-3600</v>
@@ -7192,10 +7192,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="F96" s="3">
         <v>-1500</v>

--- a/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>NMM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,397 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>309500</v>
+      </c>
+      <c r="F8" s="3">
         <v>370900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>322400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>280700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>236600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>268100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>228000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>152000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>65100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>69200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>64500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>46500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>46500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>61300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>63500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>47700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>46800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>57500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>62600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>58200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>53100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>59300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>60000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>50000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>42400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>49700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>54200</v>
+      </c>
+      <c r="F9" s="3">
         <v>46700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>34000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>26900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>20700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>19800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>18700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>9000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>6300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>5600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>5800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>4400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>5100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>4800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>3700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>4300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>3400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>3000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>3600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>3100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>3000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>255300</v>
+      </c>
+      <c r="F10" s="3">
         <v>324200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>288400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>253800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>215900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>248300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>209300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>143000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>57500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>64200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>58200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>42200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>40900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>55500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>59100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>43700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>41700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>52700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>58900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>53900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>49700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>56300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>56400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>48400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>39300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>46700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,174 +1259,192 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>7600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-1100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-44100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>63000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>6800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>6900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>29300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>7300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>1200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>5300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>37900</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>32700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>10000</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>54200</v>
+      </c>
+      <c r="F15" s="3">
         <v>58000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>59300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>41700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>42900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>45500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>32100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>22100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>13100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>14600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>14200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>13700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>13600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>13400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>13200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>13200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>13500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>14500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>14500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>14400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>14900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>16200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>21100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>18700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>16800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>16600</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>209900</v>
+      </c>
+      <c r="F17" s="3">
         <v>225900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>186800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>148000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>137700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>139800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>86200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>45500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>114500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>51900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>54400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>52100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>73300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>38500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>44000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>46600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>46300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>44500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>79500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>39700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>74000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>41900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>38200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>38200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>44300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>99600</v>
+      </c>
+      <c r="F18" s="3">
         <v>145000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>135600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>132700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>98900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>128300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>141800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>106500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>62100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-45300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>12600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-7900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>25000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>11200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>18100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-21300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>13400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-14700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>18100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>11800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>4200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>5400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1682,188 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-26800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>121600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-14500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-13200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-11800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>16400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-6600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>74600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-4800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-6800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-50900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-8200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-10200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-9700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-10700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-7700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-8200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-7900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-8100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="F21" s="3">
         <v>176300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>316400</v>
       </c>
-      <c r="F21" s="3">
-        <v>159800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>128500</v>
-      </c>
       <c r="H21" s="3">
+        <v>202700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J21" s="3">
         <v>162000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>190300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>122000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>149800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-35600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>21100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-49600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>30000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>6700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>4000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>15000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>25000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-15200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>20400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>40100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>31300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>21500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>22100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1851,105 +1931,117 @@
         <v>0</v>
       </c>
       <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>9900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>8100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>10400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>7600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>99200</v>
+      </c>
+      <c r="F23" s="3">
         <v>118300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>257200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>118200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>85700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>116500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>158200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>99900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>136700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-50200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>7000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-14600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-10700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-62900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>16900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-6500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-9500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>10500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-29500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>5500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-22800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>9200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>4400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-5700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>99200</v>
+      </c>
+      <c r="F26" s="3">
         <v>118300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>257200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>118200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>85700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>116500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>158200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>99900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>136700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-50200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>7000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-14600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-10700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-62900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>16900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-6500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-9500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>10500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-29500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>5500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-22800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>9200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>4400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-5700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-33900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>99200</v>
+      </c>
+      <c r="F27" s="3">
         <v>115900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>252000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>115800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>84000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>115200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>158800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>97900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>133900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-49200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>6900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-14300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-10500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-62900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>16900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-6500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-9500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>10200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-28900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>5400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-22400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>9100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>4000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-5500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
         <v>26800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-121600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>14500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>13200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>11800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-16400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>6600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-74600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>4800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>6800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>50900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>8200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>10200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>9700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>10700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>7700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>8200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>7900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>8100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>99200</v>
+      </c>
+      <c r="F33" s="3">
         <v>115900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>252000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>115800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>84000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>115200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>158800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>97900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>133900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-49200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>6900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-14300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-10500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-62900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>16900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-6500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-9500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>10200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-28900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>5400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-22400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>9100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>4000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-5500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>99200</v>
+      </c>
+      <c r="F35" s="3">
         <v>115900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>252000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>115800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>84000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>115200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>158800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>97900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>133900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-49200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>6900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-14300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-10500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-62900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>16900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-6500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-9500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>10200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-28900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>5400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-22400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>9100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>4000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-5500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3266,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>270100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>213200</v>
+      </c>
+      <c r="F41" s="3">
         <v>157800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>92000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>163400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>96500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>159500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>132200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>227100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>43500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>19300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>22600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>23200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>22000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>23400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>24000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>33900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>47500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>58600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>53500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>40600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>48300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>24000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>24700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>79700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>111600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>17400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,91 +3440,103 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3">
         <v>75000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>50100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>56500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>56700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>23800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>29200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>20900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>25400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>22000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>22800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>25000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>27800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>35100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>33000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>33100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>44300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>47800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>28500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>27600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>28400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>29500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>44800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>46600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>34400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>29700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,423 +3618,459 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F45" s="3">
         <v>77600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>97800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>72900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>55400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>43100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>58500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>34000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>27500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>19500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>21700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>19400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>21000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>17500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>10000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>9000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>5100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>4800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>7400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>69800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>3500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>6800</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>8600</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>7800</v>
       </c>
       <c r="AA45" s="3">
         <v>8600</v>
       </c>
       <c r="AB45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="AD45" s="3">
         <v>9300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3">
+        <v>318200</v>
+      </c>
+      <c r="F46" s="3">
         <v>310400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>239900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>292700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>208600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>226300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>219900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>282000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>96400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>60800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>67100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>67600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>70900</v>
-      </c>
-      <c r="P46" s="3">
-        <v>76000</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>67000</v>
       </c>
       <c r="R46" s="3">
         <v>76000</v>
       </c>
       <c r="S46" s="3">
+        <v>67000</v>
+      </c>
+      <c r="T46" s="3">
+        <v>76000</v>
+      </c>
+      <c r="U46" s="3">
         <v>96900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>111100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>89400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>137900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>80100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>60300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>78000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>134100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>154600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>56300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
         <v>260100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>176000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>143800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>100900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>81600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>26400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>8100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>34200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>33500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>33800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>49400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>63200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>140100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>150700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>142200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>139000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>154400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>143300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>143100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>118900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>84400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>53700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>69600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>9800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3734000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3695300</v>
+      </c>
+      <c r="F48" s="3">
         <v>4100400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4130300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3022700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3059400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3096900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3143900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1976300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1821900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1054400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1136100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1100100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1063200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1076500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1017000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1010000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1025200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1043300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1065700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1005300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1085100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1099000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1150100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1083600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1023600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>1037200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>1045300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
         <v>78700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>86300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>88000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>93600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>100400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>109700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>4000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>4300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>5000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>6000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>7100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>8100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>9400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>38000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>15800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>19000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>867700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>822300</v>
+      </c>
+      <c r="F52" s="3">
         <v>146100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>142100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>131900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>121900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>118100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>112700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>72600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>66100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>55900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>58700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>43500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>41300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>34600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>27900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>19300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>17400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>16500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>14200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>14800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>18800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>19000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>17400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>18100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>20400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>146300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>147900</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4965600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4835800</v>
+      </c>
+      <c r="F54" s="3">
         <v>4895700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4774500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3679200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3584400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3623300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3612700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2335900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1994200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1207300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1297700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1247600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1227600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1253500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1255400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1259800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1285600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1314100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1328600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1307300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1334200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1305300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1339400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1327600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1284000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1268600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>1300800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4578,544 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3">
         <v>27100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>31500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>29500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>25100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>21100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>22800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>9300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>6300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>6500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>8500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>5200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>4000</v>
-      </c>
-      <c r="V57" s="3">
-        <v>3700</v>
-      </c>
-      <c r="W57" s="3">
-        <v>4200</v>
       </c>
       <c r="X57" s="3">
         <v>3700</v>
       </c>
       <c r="Y57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AA57" s="3">
         <v>5200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>4200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>7700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>3300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
         <v>391100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>349400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>221300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>245200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>255100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>286500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>115400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>92300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>201800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>204600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>93500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>64800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>59800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>64700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>11700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>26700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>26800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>27800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>45000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>26600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>26600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>27000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>36200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>22000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>74000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>137500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>162400</v>
+      </c>
+      <c r="F59" s="3">
         <v>199500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>216900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>59300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>55500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>119300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>93800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>43400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>48700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>45100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>65900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>41700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>13700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>11500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>13500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>16400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>15700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>20700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>22200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>23000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>21700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>23900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>24000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>28300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>21500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>21600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>19200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3">
+        <v>162400</v>
+      </c>
+      <c r="F60" s="3">
         <v>617700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>597900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>310100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>325800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>395500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>403100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>168100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>150700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>253300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>277100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>141200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>86300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>79800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>83400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>32200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>46600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>52300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>54100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>71800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>52500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>54200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>56300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>68600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>51200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>99000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>64000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1924700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1870500</v>
+      </c>
+      <c r="F61" s="3">
         <v>1554400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1567200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1066000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1074700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1106600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1171900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>680100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>608900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>285000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>301000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>394600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>411200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>429200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>390500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>473400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>473900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>480700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>483800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>449500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>460200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>466900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>473500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>438800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>402500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>449700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>512300</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>362300</v>
+      </c>
+      <c r="F62" s="3">
         <v>380600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>383300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>332500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>330100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>351500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>385000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>225700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>238100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>14200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>14800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>15300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>15900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>16500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>17000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>3900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>4200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>4400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>7400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>10500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>13500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>16500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>19500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>22600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>25600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>39700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2395200</v>
+      </c>
+      <c r="F66" s="3">
         <v>2552700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2548300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1708600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1730500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1853600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2013700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1073900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>997700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>552400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>592900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>551200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>513400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>525500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>491000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>509400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>524700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>537400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>545300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>531700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>526200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>537600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>549400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>547700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>479300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>588400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>619000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,91 +5675,103 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>37500</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>35100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>30000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>27700</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>26000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>21800</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>15000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>9700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>2800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>3800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>3700</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>4000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>4300</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>5600</v>
-      </c>
-      <c r="R70" s="3">
-        <v>5400</v>
       </c>
       <c r="S70" s="3">
         <v>5600</v>
       </c>
       <c r="T70" s="3">
+        <v>5400</v>
+      </c>
+      <c r="U70" s="3">
+        <v>5600</v>
+      </c>
+      <c r="V70" s="3">
         <v>5800</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>5800</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>5700</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>6400</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>5500</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="AA70" s="3">
         <v>5900</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AB70" s="3">
         <v>5700</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AC70" s="3">
         <v>5600</v>
       </c>
-      <c r="AB70" s="3">
+      <c r="AD70" s="3">
         <v>3100</v>
       </c>
-      <c r="AC70" s="3">
+      <c r="AE70" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,8 +5853,14 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5594,8 +5942,14 @@
       <c r="AC72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2551400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2440600</v>
+      </c>
+      <c r="F76" s="3">
         <v>2305500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2191100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1940500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1826200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1743700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1577200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1247000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>986800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>652000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>701000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>692800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>710200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>723700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>758800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>745100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>755300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>771000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>777500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>769900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>801600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>762200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>784100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>774100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>799100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>677100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>678600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>99200</v>
+      </c>
+      <c r="F81" s="3">
         <v>115900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>252000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>115800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>84000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>115200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>158800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>97900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>133900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-49200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>6900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-14300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-10500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-62900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>16900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-6500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-9500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>10200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-28900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>5400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-22400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>9100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>4000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-5500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6607,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3">
         <v>58000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>59300</v>
       </c>
-      <c r="F83" s="3">
-        <v>41700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>42900</v>
-      </c>
       <c r="H83" s="3">
+        <v>84600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="J83" s="3">
         <v>45500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>32100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>22100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>13100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>14600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>14200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>13700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>13600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>13400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>13200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>13200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>13500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>14500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>14500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>14400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>14900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>16200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>21100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>18700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>16800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>16600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-411800</v>
+      </c>
+      <c r="F89" s="3">
         <v>140100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>219100</v>
       </c>
-      <c r="F89" s="3">
-        <v>142000</v>
-      </c>
-      <c r="G89" s="3">
-        <v>5200</v>
-      </c>
       <c r="H89" s="3">
+        <v>147200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-272000</v>
+      </c>
+      <c r="J89" s="3">
         <v>129000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>70900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>61100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>16200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>25400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>21000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>26700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>20900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>23300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>32700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>3900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>10500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>17700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>19400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>24800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>6400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>16000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>27400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>12300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>21900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6850,55 +7292,55 @@
         <v>-143400</v>
       </c>
       <c r="K91" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-143400</v>
+      </c>
+      <c r="M91" s="3">
         <v>-37000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-33900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-37300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-5500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-3300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-79200</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3" t="s">
+      <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-57200</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>8</v>
@@ -6906,8 +7348,14 @@
       <c r="AC91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3">
+        <v>360500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-50500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-203900</v>
       </c>
-      <c r="F94" s="3">
-        <v>-40200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-21700</v>
-      </c>
       <c r="H94" s="3">
+        <v>-61900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>84600</v>
+      </c>
+      <c r="J94" s="3">
         <v>-3200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>30500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-139200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>5600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-38700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-36300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-5200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>3700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-5400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-5400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-14100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-34800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-13600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-167800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-109800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>98000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-15300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,16 +7652,18 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-1500</v>
@@ -7204,28 +7672,28 @@
         <v>-1500</v>
       </c>
       <c r="H96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I96" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-1400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-600</v>
       </c>
       <c r="M96" s="3">
         <v>-600</v>
       </c>
       <c r="N96" s="3">
-        <v>-3400</v>
+        <v>-600</v>
       </c>
       <c r="O96" s="3">
-        <v>-3400</v>
+        <v>-600</v>
       </c>
       <c r="P96" s="3">
         <v>-3400</v>
@@ -7237,19 +7705,19 @@
         <v>-3400</v>
       </c>
       <c r="S96" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="T96" s="3">
         <v>-3400</v>
       </c>
       <c r="U96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="V96" s="3">
         <v>-3400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="X96" s="3">
         <v>0</v>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,91 +8004,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3">
+        <v>83800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-24800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-79600</v>
       </c>
-      <c r="F100" s="3">
-        <v>-35400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-44700</v>
-      </c>
       <c r="H100" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="J100" s="3">
         <v>-97600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-193100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>259600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-19800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>18500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>8300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-16900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-36600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-22800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-16200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-9100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>12000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>2300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>25900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>85300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>65600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-29800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,87 +8182,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3">
+        <v>32500</v>
+      </c>
+      <c r="F102" s="3">
         <v>64800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-64300</v>
       </c>
-      <c r="F102" s="3">
-        <v>66400</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-61300</v>
-      </c>
       <c r="H102" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-200000</v>
+      </c>
+      <c r="J102" s="3">
         <v>28300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-91700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>181500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>20700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>4400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-9200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-15100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-11100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>3100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>17300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-7700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>18700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-55100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-31900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>94300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-23200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NMM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>NMM</t>
   </si>
@@ -885,7 +885,7 @@
         <v>59700</v>
       </c>
       <c r="E9" s="3">
-        <v>54200</v>
+        <v>36900</v>
       </c>
       <c r="F9" s="3">
         <v>46700</v>
@@ -974,7 +974,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>255300</v>
+        <v>272600</v>
       </c>
       <c r="F10" s="3">
         <v>324200</v>
@@ -2316,7 +2316,7 @@
         <v>112300</v>
       </c>
       <c r="E27" s="3">
-        <v>99200</v>
+        <v>97200</v>
       </c>
       <c r="F27" s="3">
         <v>115900</v>
@@ -2850,7 +2850,7 @@
         <v>112300</v>
       </c>
       <c r="E33" s="3">
-        <v>99200</v>
+        <v>97200</v>
       </c>
       <c r="F33" s="3">
         <v>115900</v>
@@ -3028,7 +3028,7 @@
         <v>112300</v>
       </c>
       <c r="E35" s="3">
-        <v>99200</v>
+        <v>97200</v>
       </c>
       <c r="F35" s="3">
         <v>115900</v>
@@ -3277,7 +3277,7 @@
         <v>270100</v>
       </c>
       <c r="E41" s="3">
-        <v>213200</v>
+        <v>197500</v>
       </c>
       <c r="F41" s="3">
         <v>157800</v>
@@ -3454,8 +3454,8 @@
       <c r="D43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
+      <c r="E43" s="3">
+        <v>43500</v>
       </c>
       <c r="F43" s="3">
         <v>75000</v>
@@ -3633,7 +3633,7 @@
         <v>93800</v>
       </c>
       <c r="E45" s="3">
-        <v>105000</v>
+        <v>77200</v>
       </c>
       <c r="F45" s="3">
         <v>77600</v>
@@ -3810,8 +3810,8 @@
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
+      <c r="E47" s="3">
+        <v>305100</v>
       </c>
       <c r="F47" s="3">
         <v>260100</v>
@@ -3900,7 +3900,7 @@
         <v>3734000</v>
       </c>
       <c r="E48" s="3">
-        <v>3695300</v>
+        <v>4005800</v>
       </c>
       <c r="F48" s="3">
         <v>4100400</v>
@@ -3988,8 +3988,8 @@
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
+      <c r="E49" s="3">
+        <v>74000</v>
       </c>
       <c r="F49" s="3">
         <v>78700</v>
@@ -4256,7 +4256,7 @@
         <v>867700</v>
       </c>
       <c r="E52" s="3">
-        <v>822300</v>
+        <v>132700</v>
       </c>
       <c r="F52" s="3">
         <v>146100</v>
@@ -4588,8 +4588,8 @@
       <c r="D57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
+      <c r="E57" s="3">
+        <v>22200</v>
       </c>
       <c r="F57" s="3">
         <v>27100</v>
@@ -4677,8 +4677,8 @@
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="E58" s="3">
+        <v>330100</v>
       </c>
       <c r="F58" s="3">
         <v>391100</v>
@@ -4767,7 +4767,7 @@
         <v>137500</v>
       </c>
       <c r="E59" s="3">
-        <v>162400</v>
+        <v>140200</v>
       </c>
       <c r="F59" s="3">
         <v>199500</v>
@@ -4856,7 +4856,7 @@
         <v>8</v>
       </c>
       <c r="E60" s="3">
-        <v>162400</v>
+        <v>492500</v>
       </c>
       <c r="F60" s="3">
         <v>617700</v>
@@ -4945,7 +4945,7 @@
         <v>1924700</v>
       </c>
       <c r="E61" s="3">
-        <v>1870500</v>
+        <v>1540400</v>
       </c>
       <c r="F61" s="3">
         <v>1554400</v>
@@ -5690,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>39400</v>
       </c>
       <c r="F70" s="3">
         <v>37500</v>
@@ -6224,7 +6224,7 @@
         <v>2551400</v>
       </c>
       <c r="E76" s="3">
-        <v>2440600</v>
+        <v>2401200</v>
       </c>
       <c r="F76" s="3">
         <v>2305500</v>
@@ -6496,7 +6496,7 @@
         <v>112300</v>
       </c>
       <c r="E81" s="3">
-        <v>99200</v>
+        <v>97200</v>
       </c>
       <c r="F81" s="3">
         <v>115900</v>
@@ -6617,8 +6617,8 @@
       <c r="D83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
+      <c r="E83" s="3">
+        <v>-147600</v>
       </c>
       <c r="F83" s="3">
         <v>58000</v>
@@ -7271,25 +7271,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-38400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-389100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-33300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-143400</v>
       </c>
       <c r="K91" s="3">
         <v>-33300</v>
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="F96" s="3">
         <v>-1500</v>
